--- a/img_src/plots.xlsx
+++ b/img_src/plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom6311tom6311/Desktop/ntu-thesis/img_src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A82C1F-B606-BB4C-A293-A7BBDBE8AFBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFC7ABC-1CB7-8C41-A802-11713DD015AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="7" activeTab="9" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="7" activeTab="9" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
   </bookViews>
   <sheets>
     <sheet name="exp3" sheetId="1" r:id="rId1"/>
@@ -28,48 +28,16 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'exp7 (II)'!$D$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'exp7 (II)'!$D$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'exp7 (II)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'exp7 (II)'!$D$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'exp7 (II)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'exp8'!$E$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'exp8'!$E$3:$E$62</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'exp7 (II)'!$D$2</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'exp7 (II)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'exp7 (II)'!$D$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'exp7 (II)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'exp7 (II)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'exp8'!$A$3:$A$62</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'exp8'!$C$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'exp8'!$C$3:$C$62</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'exp8'!$D$2</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'exp8'!$D$3:$D$62</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'exp8'!$E$2</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'exp8'!$E$3:$E$62</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'exp8'!$A$3:$A$62</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'exp8'!$C$2</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'exp8'!$C$3:$C$62</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'exp8'!$D$2</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'exp8'!$D$3:$D$62</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'exp8'!$E$2</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'exp8'!$E$3:$E$62</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'exp7 (II)'!$D$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'exp7 (II)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'exp8'!$A$3:$A$62</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'exp8'!$C$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'exp8'!$C$3:$C$62</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'exp8'!$D$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'exp8'!$D$3:$D$62</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -11691,26 +11659,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11748,7 +11716,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{88DBC12D-3386-1541-A5DF-3AF96DF5FB9C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Migration With SR</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11761,7 +11729,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{56E95DEE-9DD5-F345-8C3C-CCE66C9C8F9A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.42</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Migration Without SR</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11774,7 +11742,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{818DD514-1DC1-8C46-A9ED-6D6FD2BDF811}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>No Migration</cx:v>
             </cx:txData>
           </cx:tx>
@@ -19509,16 +19477,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>416279</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>492618</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:rowOff>21514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>825502</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19756</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>75994</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200194</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -19554,8 +19522,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3934179" y="245533"/>
-              <a:ext cx="4536723" cy="3025423"/>
+              <a:off x="6481744" y="222771"/>
+              <a:ext cx="4538458" cy="2996275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -21316,8 +21284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5C90E7-F9B4-DB44-95B7-4F0C3FC7A9B6}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="183" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21329,7 +21297,7 @@
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="19" t="s">
         <v>51</v>
@@ -21340,7 +21308,7 @@
       </c>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" t="s">
         <v>49</v>
@@ -21355,7 +21323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -21371,8 +21339,20 @@
       <c r="E3">
         <v>42.037999999999997</v>
       </c>
+      <c r="F3">
+        <f>AVERAGE(D3:D12)</f>
+        <v>25.124000000000002</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(E3:E12)</f>
+        <v>53.236400000000003</v>
+      </c>
+      <c r="H3">
+        <f>1-(F3/G3)</f>
+        <v>0.5280672622491378</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -21389,7 +21369,7 @@
         <v>60.442</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -21406,7 +21386,7 @@
         <v>65.775000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -21423,7 +21403,7 @@
         <v>23.405000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -21440,7 +21420,7 @@
         <v>82.278000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -21457,7 +21437,7 @@
         <v>50.512</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -21474,7 +21454,7 @@
         <v>67.063000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -21491,7 +21471,7 @@
         <v>41.591999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -21508,7 +21488,7 @@
         <v>47.905000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -21525,7 +21505,7 @@
         <v>51.353999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -21541,8 +21521,20 @@
       <c r="E13">
         <v>70.13</v>
       </c>
+      <c r="F13">
+        <f>AVERAGE(D13:D22)</f>
+        <v>62.789100000000005</v>
+      </c>
+      <c r="G13">
+        <f>AVERAGE(E13:E22)</f>
+        <v>108.2574</v>
+      </c>
+      <c r="H13">
+        <f>1-(F13/G13)</f>
+        <v>0.42000177355081503</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -21559,7 +21551,7 @@
         <v>118.06100000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -21576,7 +21568,7 @@
         <v>102.152</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -21714,6 +21706,22 @@
       </c>
       <c r="E23">
         <v>311.18099999999998</v>
+      </c>
+      <c r="F23">
+        <f>AVERAGE(D23:D32)</f>
+        <v>129.05000000000001</v>
+      </c>
+      <c r="G23">
+        <f>AVERAGE(E23:E32)</f>
+        <v>248.32510000000002</v>
+      </c>
+      <c r="H23">
+        <f>1-(F23/G23)</f>
+        <v>0.4803183407557271</v>
+      </c>
+      <c r="I23">
+        <f>(H3+H13+H23)/3</f>
+        <v>0.47612912551855996</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -21883,8 +21891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEA8D62-75DC-1342-B58F-E47EC786F526}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22639,7 +22647,7 @@
         <v>1003.199</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -22654,7 +22662,7 @@
         <v>1001.2430000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -22669,7 +22677,7 @@
         <v>989.76</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -22684,7 +22692,7 @@
         <v>997.58600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -22699,7 +22707,7 @@
         <v>1004.841</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -22716,7 +22724,7 @@
         <v>1105.6610000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -22731,7 +22739,7 @@
         <v>1103.279</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -22746,7 +22754,7 @@
         <v>1091.4929999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -22761,7 +22769,7 @@
         <v>1099.7809999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -22776,7 +22784,7 @@
         <v>1107.7090000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -22793,7 +22801,7 @@
         <v>1208.123</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -22808,7 +22816,7 @@
         <v>1205.319</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -22823,7 +22831,7 @@
         <v>1193.223</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -22838,7 +22846,7 @@
         <v>1201.9839999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -22851,6 +22859,22 @@
       </c>
       <c r="E62">
         <v>1210.5719999999999</v>
+      </c>
+      <c r="F62">
+        <f>(C62-C3)/11</f>
+        <v>81.803545454545443</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62:H62" si="0">(D62-D3)/11</f>
+        <v>82.609727272727284</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>99.108727272727265</v>
+      </c>
+      <c r="I62">
+        <f>H62/F62</f>
+        <v>1.2115456209388569</v>
       </c>
     </row>
   </sheetData>
@@ -25581,6 +25605,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="O12:Q12"/>
@@ -25597,27 +25642,6 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/img_src/plots.xlsx
+++ b/img_src/plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom6311tom6311/Desktop/ntu-thesis/img_src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFC7ABC-1CB7-8C41-A802-11713DD015AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A3018D-2B43-2948-BB74-73C6F89089A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" firstSheet="7" activeTab="9" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
+    <workbookView xWindow="14100" yWindow="0" windowWidth="19500" windowHeight="21000" firstSheet="1" activeTab="11" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
   </bookViews>
   <sheets>
     <sheet name="exp3" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,44 @@
     <sheet name="exp7" sheetId="10" r:id="rId9"/>
     <sheet name="exp7 (II)" sheetId="11" r:id="rId10"/>
     <sheet name="exp8" sheetId="12" r:id="rId11"/>
+    <sheet name="exp3(III)" sheetId="13" r:id="rId12"/>
+    <sheet name="exp4(IV)" sheetId="14" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'exp7 (II)'!$D$2</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'exp8'!$E$2</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'exp8'!$E$3:$E$62</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'exp3(III)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'exp7 (II)'!$E$2</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'exp3(III)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'exp8'!$A$3:$A$62</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'exp8'!$C$2</definedName>
@@ -49,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="72">
   <si>
     <t>M</t>
   </si>
@@ -257,12 +287,21 @@
   <si>
     <t>Migration Without SR</t>
   </si>
+  <si>
+    <t>alpha = 0.99</t>
+  </si>
+  <si>
+    <t>alpha = 0.999</t>
+  </si>
+  <si>
+    <t>alpha = 0.9999</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5673,6 +5712,3231 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Retrievability -- 𝜶 = 0.99</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2791776027996496E-2"/>
+          <c:y val="0.13467592592592592"/>
+          <c:w val="0.7965301837270341"/>
+          <c:h val="0.73382728200641578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.966167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99973999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99994700000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A94-C84A-BD38-FD4C3D1C7F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99449500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999970000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A94-C84A-BD38-FD4C3D1C7F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99999800000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999939999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A94-C84A-BD38-FD4C3D1C7F0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="820915759"/>
+        <c:axId val="820909055"/>
+        <c:axId val="821275695"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="820915759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46269291338582669"/>
+              <c:y val="0.92546916010498692"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820909055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="820909055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>q</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.71873587980571296"/>
+              <c:y val="0.47524285819738687"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820915759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="821275695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820909055"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76461167747591285"/>
+          <c:y val="0.3236081173546772"/>
+          <c:w val="0.14039326334208224"/>
+          <c:h val="0.39062773403324585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Retrievability -- 𝜶 = 0.9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2791776027996496E-2"/>
+          <c:y val="0.13467592592592592"/>
+          <c:w val="0.7965301837270341"/>
+          <c:h val="0.73382728200641578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.763826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98035399999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99948599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF4E-AF49-9CCD-D43F7FB6C0B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.92159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99570700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99998699999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF4E-AF49-9CCD-D43F7FB6C0B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97996399999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99801799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99997000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF4E-AF49-9CCD-D43F7FB6C0B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="820915759"/>
+        <c:axId val="820909055"/>
+        <c:axId val="821275695"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="820915759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46269291338582669"/>
+              <c:y val="0.92546916010498692"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820909055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="820909055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>q</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.71873587980571296"/>
+              <c:y val="0.47524285819738687"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820915759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="821275695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820909055"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76461167747591285"/>
+          <c:y val="0.3236081173546772"/>
+          <c:w val="0.14039326334208224"/>
+          <c:h val="0.39062773403324585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Retrievability -- 𝜶 = 0.99</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2791776027996496E-2"/>
+          <c:y val="0.13467592592592592"/>
+          <c:w val="0.7965301837270341"/>
+          <c:h val="0.73382728200641578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.966167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99973999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99994700000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFCE-6546-B4D8-D12C583F4228}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99449500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999970000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DFCE-6546-B4D8-D12C583F4228}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99999800000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999939999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DFCE-6546-B4D8-D12C583F4228}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="820915759"/>
+        <c:axId val="820909055"/>
+        <c:axId val="821275695"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="820915759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46269291338582669"/>
+              <c:y val="0.92546916010498692"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820909055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="820909055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>q</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.71873587980571296"/>
+              <c:y val="0.47524285819738687"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820915759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="821275695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820909055"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76461167747591285"/>
+          <c:y val="0.3236081173546772"/>
+          <c:w val="0.14039326334208224"/>
+          <c:h val="0.39062773403324585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Retrievability -- 𝜶 = 0.99</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2791776027996496E-2"/>
+          <c:y val="0.13467592592592592"/>
+          <c:w val="0.7965301837270341"/>
+          <c:h val="0.73382728200641578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.966167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99973999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99994700000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-498C-C544-9249-A056310B68D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99449500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999970000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-498C-C544-9249-A056310B68D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp4(IV)'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'exp4(IV)'!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99999800000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99999939999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-498C-C544-9249-A056310B68D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="820915759"/>
+        <c:axId val="820909055"/>
+        <c:axId val="821275695"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="820915759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="1" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>K</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46269291338582669"/>
+              <c:y val="0.92546916010498692"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820909055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="820909055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>q</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.71873587980571296"/>
+              <c:y val="0.47524285819738687"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820915759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="821275695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820909055"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76461167747591285"/>
+          <c:y val="0.3236081173546772"/>
+          <c:w val="0.14039326334208224"/>
+          <c:h val="0.39062773403324585"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -10673,7 +13937,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>LOOKUP Efficiency</a:t>
+              <a:t>NODE_LOOKUP Efficiency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10738,7 +14002,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -10836,8 +14100,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -10935,8 +14199,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -11034,8 +14298,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -11133,12 +14397,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="8"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
@@ -11247,7 +14509,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>n</a:t>
+                  <a:t>Network Size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11256,8 +14518,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.84532502187226599"/>
-              <c:y val="0.80460629921259841"/>
+              <c:x val="0.86825707597361157"/>
+              <c:y val="0.90885355546772872"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11372,13 +14634,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Num</a:t>
+                  <a:t>NODE_LOOKUP Steps</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Hops</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11796,6 +15053,178 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.22</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.28</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>NODE_LOOKUP Efficiency</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>NODE_LOOKUP Efficiency</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A5AA13A6-A85F-5B44-B65F-F97A864255A0}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>K=1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{67832875-EC24-1340-A8BD-B2A91D8AACE2}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:v>K=2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4531035B-DE32-CA47-95B7-97D11E90A937}" formatIdx="3">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>K=3</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0A5F62C4-D924-7B4E-AADD-F2192CA3FF33}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:v>K=4</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000000-34E6-4A48-A896-7BEED96F1E0A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>K=5</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11957,6 +15386,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14380,6 +17849,521 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19522,8 +23506,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6481744" y="222771"/>
-              <a:ext cx="4538458" cy="2996275"/>
+              <a:off x="6487018" y="224714"/>
+              <a:ext cx="4536376" cy="3023480"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -19634,6 +23618,248 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B12BE4B-9930-A84C-94E5-BD26163EF7AB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6496050" y="190500"/>
+              <a:ext cx="7753350" cy="3289300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>700128</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395132</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>63566</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6C13DD-8920-744D-827B-9BE5A348423D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>700128</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395132</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63567</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF735A4-0B88-2344-B359-CA63422345B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>700128</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395132</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63566</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F394E9C-8617-A143-A2FA-7D7B329930A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>700128</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>395132</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>63566</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D7F970-CA10-294C-85C6-A1A616EA5F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20398,16 +24624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20779,13 +25005,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDC0A2-532F-F34A-B5EA-8D7563EBBD64}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20808,7 +25034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20832,7 +25058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20856,7 +25082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>5</v>
       </c>
@@ -20880,7 +25106,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>10</v>
       </c>
@@ -20904,7 +25130,7 @@
         <v>1.3080000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>20</v>
       </c>
@@ -20928,12 +25154,12 @@
         <v>1.6419999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -20956,7 +25182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1</v>
       </c>
@@ -20985,7 +25211,7 @@
         <v>0.19426626023791521</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2</v>
       </c>
@@ -21014,7 +25240,7 @@
         <v>0.27793218454697055</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>5</v>
       </c>
@@ -21043,7 +25269,7 @@
         <v>0.38853252047583042</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
@@ -21072,7 +25298,7 @@
         <v>0.47219844478488571</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>20</v>
       </c>
@@ -21101,12 +25327,12 @@
         <v>0.5558643690939411</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -21129,7 +25355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>1</v>
       </c>
@@ -21158,7 +25384,7 @@
         <v>0.32053932939256008</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2</v>
       </c>
@@ -21187,7 +25413,7 @@
         <v>0.45858810450250137</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>5</v>
       </c>
@@ -21216,7 +25442,7 @@
         <v>0.64107865878512016</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>10</v>
       </c>
@@ -21245,7 +25471,7 @@
         <v>0.77912743389506134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>20</v>
       </c>
@@ -21284,11 +25510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5C90E7-F9B4-DB44-95B7-4F0C3FC7A9B6}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="183" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A9" zoomScale="111" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -21297,7 +25523,7 @@
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="17"/>
       <c r="B1" s="19" t="s">
         <v>51</v>
@@ -21308,7 +25534,7 @@
       </c>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="17"/>
       <c r="B2" t="s">
         <v>49</v>
@@ -21323,7 +25549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -21352,7 +25578,7 @@
         <v>0.5280672622491378</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -21369,7 +25595,7 @@
         <v>60.442</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -21386,7 +25612,7 @@
         <v>65.775000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -21403,7 +25629,7 @@
         <v>23.405000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -21420,7 +25646,7 @@
         <v>82.278000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -21437,7 +25663,7 @@
         <v>50.512</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -21454,7 +25680,7 @@
         <v>67.063000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -21471,7 +25697,7 @@
         <v>41.591999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -21488,7 +25714,7 @@
         <v>47.905000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -21505,7 +25731,7 @@
         <v>51.353999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -21534,7 +25760,7 @@
         <v>0.42000177355081503</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -21551,7 +25777,7 @@
         <v>118.06100000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -21568,7 +25794,7 @@
         <v>102.152</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -21585,7 +25811,7 @@
         <v>92.126000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -21602,7 +25828,7 @@
         <v>124.913</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -21619,7 +25845,7 @@
         <v>155.935</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -21636,7 +25862,7 @@
         <v>120.256</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -21653,7 +25879,7 @@
         <v>88.117999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -21670,7 +25896,7 @@
         <v>98.667000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -21691,7 +25917,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -21724,7 +25950,7 @@
         <v>0.47612912551855996</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -21741,7 +25967,7 @@
         <v>241.447</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -21758,7 +25984,7 @@
         <v>245.34399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -21775,7 +26001,7 @@
         <v>251.42599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -21792,7 +26018,7 @@
         <v>133.12799999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -21809,7 +26035,7 @@
         <v>285.10399999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -21826,7 +26052,7 @@
         <v>323.03199999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="17" customHeight="1">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -21843,7 +26069,7 @@
         <v>188.76400000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -21860,7 +26086,7 @@
         <v>223.31800000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -21895,7 +26121,7 @@
       <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -21906,7 +26132,7 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
@@ -21919,7 +26145,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" t="s">
@@ -21932,7 +26158,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -21949,7 +26175,7 @@
         <v>120.376</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -21964,7 +26190,7 @@
         <v>121.06100000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -21979,7 +26205,7 @@
         <v>115.992</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -21994,7 +26220,7 @@
         <v>120.884</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -22009,7 +26235,7 @@
         <v>122.65600000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -22026,7 +26252,7 @@
         <v>203.47300000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -22041,7 +26267,7 @@
         <v>204.11799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -22056,7 +26282,7 @@
         <v>198.745</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -22071,7 +26297,7 @@
         <v>203.357</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -22086,7 +26312,7 @@
         <v>206.547</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -22103,7 +26329,7 @@
         <v>290.976</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -22118,7 +26344,7 @@
         <v>292.02100000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -22133,7 +26359,7 @@
         <v>284.68099999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -22148,7 +26374,7 @@
         <v>289.37599999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -22163,7 +26389,7 @@
         <v>294.13299999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -22180,7 +26406,7 @@
         <v>388.47899999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -22195,7 +26421,7 @@
         <v>389.25200000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -22210,7 +26436,7 @@
         <v>379.49900000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -22225,7 +26451,7 @@
         <v>384.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -22245,7 +26471,7 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -22262,7 +26488,7 @@
         <v>490.87700000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -22277,7 +26503,7 @@
         <v>491.03399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -22292,7 +26518,7 @@
         <v>481.10599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -22307,7 +26533,7 @@
         <v>486.58</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -22322,7 +26548,7 @@
         <v>490.49400000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -22339,7 +26565,7 @@
         <v>593.34500000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -22354,7 +26580,7 @@
         <v>593.07799999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="17" customHeight="1">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -22369,7 +26595,7 @@
         <v>582.84299999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -22384,7 +26610,7 @@
         <v>588.78</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -22399,7 +26625,7 @@
         <v>593.36500000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -22416,7 +26642,7 @@
         <v>695.80700000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -22431,7 +26657,7 @@
         <v>695.12099999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -22446,7 +26672,7 @@
         <v>684.57899999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -22461,7 +26687,7 @@
         <v>690.98500000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -22476,7 +26702,7 @@
         <v>696.23699999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -22493,7 +26719,7 @@
         <v>798.27599999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -22508,7 +26734,7 @@
         <v>797.16300000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -22523,7 +26749,7 @@
         <v>786.29899999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -22538,7 +26764,7 @@
         <v>793.178</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -22553,7 +26779,7 @@
         <v>799.10900000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -22570,7 +26796,7 @@
         <v>900.74300000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -22585,7 +26811,7 @@
         <v>899.20399999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -22600,7 +26826,7 @@
         <v>888.02099999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>62</v>
       </c>
@@ -22615,7 +26841,7 @@
         <v>895.37900000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -22630,7 +26856,7 @@
         <v>901.97</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -22647,7 +26873,7 @@
         <v>1003.199</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -22662,7 +26888,7 @@
         <v>1001.2430000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -22677,7 +26903,7 @@
         <v>989.76</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -22692,7 +26918,7 @@
         <v>997.58600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -22707,7 +26933,7 @@
         <v>1004.841</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -22724,7 +26950,7 @@
         <v>1105.6610000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -22739,7 +26965,7 @@
         <v>1103.279</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -22754,7 +26980,7 @@
         <v>1091.4929999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -22769,7 +26995,7 @@
         <v>1099.7809999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -22784,7 +27010,7 @@
         <v>1107.7090000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -22801,7 +27027,7 @@
         <v>1208.123</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -22816,7 +27042,7 @@
         <v>1205.319</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -22831,7 +27057,7 @@
         <v>1193.223</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -22846,7 +27072,7 @@
         <v>1201.9839999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -22898,6 +27124,973 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DDFA14-2BA6-7147-8061-27485626EA68}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2*10</f>
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>3.9849999999999999</v>
+      </c>
+      <c r="D2">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="E2">
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="F2">
+        <v>4.5229999999999997</v>
+      </c>
+      <c r="G2">
+        <v>5.3810000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="0">A3*10</f>
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>6.2335000000000003</v>
+      </c>
+      <c r="D3">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="E3">
+        <v>4.8</v>
+      </c>
+      <c r="F3">
+        <v>5.734</v>
+      </c>
+      <c r="G3">
+        <v>6.6444999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>8.4990000000000006</v>
+      </c>
+      <c r="D4">
+        <v>4.6176666666666604</v>
+      </c>
+      <c r="E4">
+        <v>5.9359999999999999</v>
+      </c>
+      <c r="F4">
+        <v>6.7026666666666603</v>
+      </c>
+      <c r="G4">
+        <v>7.3443333333333296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>9.6325000000000003</v>
+      </c>
+      <c r="D5">
+        <v>5.2712500000000002</v>
+      </c>
+      <c r="E5">
+        <v>6.6384999999999996</v>
+      </c>
+      <c r="F5">
+        <v>7.9775</v>
+      </c>
+      <c r="G5">
+        <v>9.0839999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>11.4274</v>
+      </c>
+      <c r="D6">
+        <v>5.6352000000000002</v>
+      </c>
+      <c r="E6">
+        <v>7.6006</v>
+      </c>
+      <c r="F6">
+        <v>8.5963999999999992</v>
+      </c>
+      <c r="G6">
+        <v>9.9358000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>12.8128333333333</v>
+      </c>
+      <c r="D7">
+        <v>6.1038333333333297</v>
+      </c>
+      <c r="E7">
+        <v>8.1661666666666601</v>
+      </c>
+      <c r="F7">
+        <v>9.5869999999999997</v>
+      </c>
+      <c r="G7">
+        <v>10.6815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>13.7211428571428</v>
+      </c>
+      <c r="D8">
+        <v>6.5092857142857099</v>
+      </c>
+      <c r="E8">
+        <v>8.7287142857142808</v>
+      </c>
+      <c r="F8">
+        <v>10.7021428571428</v>
+      </c>
+      <c r="G8">
+        <v>11.4091428571428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>14.570125000000001</v>
+      </c>
+      <c r="D9">
+        <v>6.8722500000000002</v>
+      </c>
+      <c r="E9">
+        <v>9.1913750000000007</v>
+      </c>
+      <c r="F9">
+        <v>11.336124999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13.126749999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>15.610777777777701</v>
+      </c>
+      <c r="D10">
+        <v>7.1546666666666603</v>
+      </c>
+      <c r="E10">
+        <v>9.8155555555555498</v>
+      </c>
+      <c r="F10">
+        <v>11.892777777777701</v>
+      </c>
+      <c r="G10">
+        <v>13.833555555555501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>16.940799999999999</v>
+      </c>
+      <c r="D11">
+        <v>5.4885000000000002</v>
+      </c>
+      <c r="E11">
+        <v>10.4224</v>
+      </c>
+      <c r="F11">
+        <v>12.39</v>
+      </c>
+      <c r="G11">
+        <v>14.4902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>17.979636363636299</v>
+      </c>
+      <c r="D12">
+        <v>7.6371818181818103</v>
+      </c>
+      <c r="E12">
+        <v>10.8921818181818</v>
+      </c>
+      <c r="F12">
+        <v>13.0714545454545</v>
+      </c>
+      <c r="G12">
+        <v>15.154454545454501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>18.946916666666599</v>
+      </c>
+      <c r="D13">
+        <v>7.8845833333333299</v>
+      </c>
+      <c r="E13">
+        <v>11.329666666666601</v>
+      </c>
+      <c r="F13">
+        <v>13.778083333333299</v>
+      </c>
+      <c r="G13">
+        <v>15.667249999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <v>19.573384615384601</v>
+      </c>
+      <c r="D14">
+        <v>6.9859999999999998</v>
+      </c>
+      <c r="E14">
+        <v>11.6768461538461</v>
+      </c>
+      <c r="F14">
+        <v>14.5083846153846</v>
+      </c>
+      <c r="G14">
+        <v>16.258076923076899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C15">
+        <v>20.189285714285699</v>
+      </c>
+      <c r="D15">
+        <v>8.4790714285714195</v>
+      </c>
+      <c r="E15">
+        <v>12.028857142857101</v>
+      </c>
+      <c r="F15">
+        <v>15.105071428571399</v>
+      </c>
+      <c r="G15">
+        <v>17.012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C16">
+        <v>20.934933333333301</v>
+      </c>
+      <c r="D16">
+        <v>8.7126000000000001</v>
+      </c>
+      <c r="E16">
+        <v>12.4547333333333</v>
+      </c>
+      <c r="F16">
+        <v>15.6692</v>
+      </c>
+      <c r="G16">
+        <v>17.8991333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f>A17*10</f>
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="D17">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="E17">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="F17">
+        <v>4.4509999999999996</v>
+      </c>
+      <c r="G17">
+        <v>5.3949999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B31" si="1">A18*10</f>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>6.2205000000000004</v>
+      </c>
+      <c r="D18">
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="E18">
+        <v>4.8220000000000001</v>
+      </c>
+      <c r="F18">
+        <v>5.7709999999999999</v>
+      </c>
+      <c r="G18">
+        <v>6.6825000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>8.4619999999999997</v>
+      </c>
+      <c r="D19">
+        <v>4.6253333333333302</v>
+      </c>
+      <c r="E19">
+        <v>5.9256666666666602</v>
+      </c>
+      <c r="F19">
+        <v>6.7703333333333298</v>
+      </c>
+      <c r="G19">
+        <v>7.3230000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>9.74</v>
+      </c>
+      <c r="D20">
+        <v>5.2977499999999997</v>
+      </c>
+      <c r="E20">
+        <v>6.5594999999999999</v>
+      </c>
+      <c r="F20">
+        <v>7.8529999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>11.2926</v>
+      </c>
+      <c r="D21">
+        <v>5.6294000000000004</v>
+      </c>
+      <c r="E21">
+        <v>7.5968</v>
+      </c>
+      <c r="F21">
+        <v>8.5603999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>12.683999999999999</v>
+      </c>
+      <c r="D22">
+        <v>6.0833333333333304</v>
+      </c>
+      <c r="E22">
+        <v>8.3071666666666601</v>
+      </c>
+      <c r="F22">
+        <v>9.6771666666666594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <v>13.698285714285699</v>
+      </c>
+      <c r="E23">
+        <v>8.6947142857142801</v>
+      </c>
+      <c r="F23">
+        <v>10.497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>14.631125000000001</v>
+      </c>
+      <c r="D24">
+        <v>6.8654999999999999</v>
+      </c>
+      <c r="E24">
+        <v>9.2053750000000001</v>
+      </c>
+      <c r="F24">
+        <v>11.2865</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>15.646000000000001</v>
+      </c>
+      <c r="D25">
+        <v>7.14</v>
+      </c>
+      <c r="E25">
+        <v>9.8334444444444404</v>
+      </c>
+      <c r="F25">
+        <v>11.9475555555555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>16.8748</v>
+      </c>
+      <c r="D26">
+        <v>7.3856000000000002</v>
+      </c>
+      <c r="E26">
+        <v>10.4152</v>
+      </c>
+      <c r="F26">
+        <v>12.4268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <v>18.059090909090902</v>
+      </c>
+      <c r="D27">
+        <v>7.6295454545454504</v>
+      </c>
+      <c r="E27">
+        <v>10.9325454545454</v>
+      </c>
+      <c r="F27">
+        <v>13.0780909090909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C28">
+        <v>19.0571666666666</v>
+      </c>
+      <c r="D28">
+        <v>7.968</v>
+      </c>
+      <c r="E28">
+        <v>11.3348333333333</v>
+      </c>
+      <c r="F28">
+        <v>13.9288333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C29">
+        <v>19.567923076923002</v>
+      </c>
+      <c r="D29">
+        <v>8.1746923076923004</v>
+      </c>
+      <c r="E29">
+        <v>11.6190769230769</v>
+      </c>
+      <c r="F29">
+        <v>14.427846153846099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="C30">
+        <v>20.1394285714285</v>
+      </c>
+      <c r="D30">
+        <v>8.4613571428571408</v>
+      </c>
+      <c r="E30">
+        <v>12.1277857142857</v>
+      </c>
+      <c r="F30">
+        <v>15.1064285714285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="C31">
+        <v>20.9472666666666</v>
+      </c>
+      <c r="D31">
+        <v>8.6449999999999996</v>
+      </c>
+      <c r="E31">
+        <v>12.4441333333333</v>
+      </c>
+      <c r="F31">
+        <v>15.6858666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61725E10-EEA2-154A-AD53-21D845C67DB2}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.763826</v>
+      </c>
+      <c r="C2">
+        <v>0.98035399999999995</v>
+      </c>
+      <c r="D2">
+        <v>0.99948599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.99570700000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.99998699999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.97996399999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.99801799999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.99997000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.966167</v>
+      </c>
+      <c r="C21">
+        <v>0.99973999999999996</v>
+      </c>
+      <c r="D21">
+        <v>0.99994700000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.99449500000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.999996</v>
+      </c>
+      <c r="D22">
+        <v>0.99999970000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.99917</v>
+      </c>
+      <c r="C23">
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="D23">
+        <v>0.99999939999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0.99696200000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.99999820100000003</v>
+      </c>
+      <c r="D39">
+        <v>0.99999780100000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.99960400000000005</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.99999910045999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0.99989399999999995</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0.99977700000000003</v>
+      </c>
+      <c r="C58">
+        <v>0.99999870079999997</v>
+      </c>
+      <c r="D58">
+        <v>0.99999930036999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>0.99989954999999997</v>
+      </c>
+      <c r="C59">
+        <v>0.99999990006999995</v>
+      </c>
+      <c r="D59">
+        <v>0.99999920026010003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>0.99997380000000002</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7AA5DC-56C2-2842-B1B3-677BD845E8B5}">
   <dimension ref="A1:E27"/>
@@ -22906,9 +28099,9 @@
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -22922,7 +28115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="26" thickTop="1" thickBot="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -22936,7 +28129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="25" thickBot="1">
       <c r="A3" s="6">
         <v>0.1</v>
       </c>
@@ -22950,7 +28143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="25" thickBot="1">
       <c r="A4" s="9">
         <v>0.2</v>
       </c>
@@ -22964,7 +28157,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="25" thickBot="1">
       <c r="A5" s="6">
         <v>0.5</v>
       </c>
@@ -22978,8 +28171,8 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17" thickBot="1"/>
+    <row r="22" spans="1:5" ht="26" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -22996,7 +28189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="26" thickTop="1" thickBot="1">
       <c r="A23" s="4">
         <v>0</v>
       </c>
@@ -23013,7 +28206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="25" thickBot="1">
       <c r="A24" s="6">
         <v>0.1</v>
       </c>
@@ -23030,7 +28223,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="25" thickBot="1">
       <c r="A25" s="9">
         <v>0.2</v>
       </c>
@@ -23047,7 +28240,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="25" thickBot="1">
       <c r="A26" s="6">
         <v>0.3</v>
       </c>
@@ -23064,7 +28257,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="25" thickBot="1">
       <c r="A27" s="6">
         <v>0.5</v>
       </c>
@@ -23095,12 +28288,12 @@
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -23117,7 +28310,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="26" thickTop="1" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -23132,7 +28325,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="26" thickTop="1" thickBot="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -23147,7 +28340,7 @@
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="25" thickBot="1">
       <c r="A4" s="9">
         <v>5</v>
       </c>
@@ -23162,7 +28355,7 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="25" thickBot="1">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -23177,7 +28370,7 @@
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25" thickBot="1">
       <c r="A6" s="9">
         <v>20</v>
       </c>
@@ -23192,8 +28385,8 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" ht="26" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="17" thickBot="1"/>
+    <row r="23" spans="1:5" ht="26" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -23210,7 +28403,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="26" thickTop="1" thickBot="1">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -23225,7 +28418,7 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="26" thickTop="1" thickBot="1">
       <c r="A25" s="6">
         <v>2</v>
       </c>
@@ -23240,7 +28433,7 @@
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="25" thickBot="1">
       <c r="A26" s="9">
         <v>5</v>
       </c>
@@ -23255,7 +28448,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="25" thickBot="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
@@ -23270,7 +28463,7 @@
       </c>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="25" thickBot="1">
       <c r="A28" s="9">
         <v>20</v>
       </c>
@@ -23299,7 +28492,7 @@
       <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -23308,7 +28501,7 @@
     <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="B1">
         <v>0</v>
       </c>
@@ -23325,7 +28518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1E-3</v>
       </c>
@@ -23345,7 +28538,7 @@
         <v>0.99860599999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -23365,7 +28558,7 @@
         <v>0.99865999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -23385,7 +28578,7 @@
         <v>0.97619999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.2</v>
       </c>
@@ -23416,12 +28609,12 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23444,7 +28637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23468,7 +28661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23492,7 +28685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>5</v>
       </c>
@@ -23516,7 +28709,7 @@
         <v>5.7519999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>10</v>
       </c>
@@ -23540,7 +28733,7 @@
         <v>7.7380000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>20</v>
       </c>
@@ -23564,7 +28757,7 @@
         <v>10.897</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>50</v>
       </c>
@@ -23588,10 +28781,10 @@
         <v>16.757999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="G9" s="1"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7">
       <c r="G17" s="1"/>
     </row>
   </sheetData>
@@ -23608,9 +28801,9 @@
       <selection activeCell="C2" sqref="C2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23633,7 +28826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23657,7 +28850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23681,7 +28874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>5</v>
       </c>
@@ -23705,7 +28898,7 @@
         <v>1.006</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>10</v>
       </c>
@@ -23729,7 +28922,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>20</v>
       </c>
@@ -23753,7 +28946,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>50</v>
       </c>
@@ -23777,10 +28970,10 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="G9" s="1"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7">
       <c r="G17" s="1"/>
     </row>
   </sheetData>
@@ -23793,11 +28986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DEBEA2-7E70-374F-B25A-995CBBA4B938}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="156" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -23806,7 +28999,7 @@
     <col min="5" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -23820,7 +29013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23834,7 +29027,7 @@
         <v>0.98021499999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23848,7 +29041,7 @@
         <v>0.99987000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -23862,7 +29055,7 @@
         <v>0.99994000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -23876,7 +29069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>0</v>
       </c>
@@ -23890,7 +29083,7 @@
         <v>0.99752399999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -23904,7 +29097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -23932,12 +29125,12 @@
       <selection activeCell="J2" sqref="J2:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -23981,7 +29174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -24031,7 +29224,7 @@
         <v>4.6527541019184513</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -24081,7 +29274,7 @@
         <v>8.6090729439183971</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -24137,7 +29330,7 @@
         <v>81.359673000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -24193,7 +29386,7 @@
         <v>46.545827000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -24249,7 +29442,7 @@
         <v>41.478853000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -24305,7 +29498,7 @@
         <v>46.065942</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -24349,7 +29542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -24399,7 +29592,7 @@
         <v>9.622539264635213</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -24449,7 +29642,7 @@
         <v>17.64494291025246</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -24505,7 +29698,7 @@
         <v>39.547317</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -24561,7 +29754,7 @@
         <v>43.086528999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -24617,7 +29810,7 @@
         <v>30.672281999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -24687,7 +29880,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
@@ -24695,7 +29888,7 @@
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17">
       <c r="C1" s="19" t="s">
         <v>39</v>
       </c>
@@ -24722,7 +29915,7 @@
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17">
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -24769,7 +29962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -24799,7 +29992,7 @@
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -24834,7 +30027,7 @@
         <v>29.946999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -24869,7 +30062,7 @@
         <v>139.75700000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -24904,7 +30097,7 @@
         <v>307.63400000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17">
       <c r="B7" t="s">
         <v>42</v>
       </c>
@@ -24934,7 +30127,7 @@
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -24969,7 +30162,7 @@
         <v>9.8569999999999993</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -25004,7 +30197,7 @@
         <v>54.005000000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -25039,7 +30232,7 @@
         <v>107.376</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -25057,7 +30250,7 @@
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -25087,7 +30280,7 @@
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -25122,7 +30315,7 @@
         <v>79.855000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17">
       <c r="B14" t="s">
         <v>37</v>
       </c>
@@ -25157,7 +30350,7 @@
         <v>219.50200000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17">
       <c r="B15" t="s">
         <v>38</v>
       </c>
@@ -25192,7 +30385,7 @@
         <v>306.65699999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
         <v>45</v>
       </c>
@@ -25222,7 +30415,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -25257,7 +30450,7 @@
         <v>25.033999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17">
       <c r="B18" t="s">
         <v>37</v>
       </c>
@@ -25292,7 +30485,7 @@
         <v>75.936999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -25327,7 +30520,7 @@
         <v>99.728999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17">
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -25345,7 +30538,7 @@
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17">
       <c r="B21" t="s">
         <v>44</v>
       </c>
@@ -25375,7 +30568,7 @@
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -25410,7 +30603,7 @@
         <v>54.088000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17">
       <c r="B23" t="s">
         <v>37</v>
       </c>
@@ -25445,7 +30638,7 @@
         <v>119.556</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17">
       <c r="B24" t="s">
         <v>38</v>
       </c>
@@ -25474,7 +30667,7 @@
         <v>275.31599999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -25504,7 +30697,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17">
       <c r="B26" t="s">
         <v>36</v>
       </c>
@@ -25539,7 +30732,7 @@
         <v>18.725999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -25574,7 +30767,7 @@
         <v>42.539000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17">
       <c r="B28" t="s">
         <v>38</v>
       </c>

--- a/img_src/plots.xlsx
+++ b/img_src/plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom6311tom6311/Desktop/ntu-thesis/img_src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A3018D-2B43-2948-BB74-73C6F89089A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781AD4FA-36BA-D941-B304-9F22815B94E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="0" windowWidth="19500" windowHeight="21000" firstSheet="1" activeTab="11" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="1" activeTab="13" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
   </bookViews>
   <sheets>
     <sheet name="exp3" sheetId="1" r:id="rId1"/>
@@ -26,48 +26,206 @@
     <sheet name="exp8" sheetId="12" r:id="rId11"/>
     <sheet name="exp3(III)" sheetId="13" r:id="rId12"/>
     <sheet name="exp4(IV)" sheetId="14" r:id="rId13"/>
+    <sheet name="exp5 (III)" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'exp7 (II)'!$D$2</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'exp8'!$E$2</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.108" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.109" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'exp8'!$E$3:$E$62</definedName>
+    <definedName name="_xlchart.v1.110" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.111" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
+    <definedName name="_xlchart.v1.112" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.113" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.114" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.115" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.116" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
+    <definedName name="_xlchart.v1.117" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.118" hidden="1">'exp3(III)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.119" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.120" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.121" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
+    <definedName name="_xlchart.v1.122" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.123" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.124" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.125" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
+    <definedName name="_xlchart.v1.126" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
+    <definedName name="_xlchart.v1.127" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.128" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.129" hidden="1">'exp3(III)'!$C$1</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'exp3(III)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.130" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.131" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.132" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
+    <definedName name="_xlchart.v1.133" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.134" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.135" hidden="1">'exp3(III)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.136" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.137" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.138" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.139" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
+    <definedName name="_xlchart.v1.140" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.141" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
+    <definedName name="_xlchart.v1.142" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.143" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.144" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.145" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.146" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
+    <definedName name="_xlchart.v1.147" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.148" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.149" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.150" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.151" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
+    <definedName name="_xlchart.v1.152" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.153" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.154" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.155" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.156" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
+    <definedName name="_xlchart.v1.157" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.158" hidden="1">'exp3(III)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.159" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.160" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.161" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
+    <definedName name="_xlchart.v1.162" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.163" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.164" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.165" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
+    <definedName name="_xlchart.v1.166" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
+    <definedName name="_xlchart.v1.167" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.168" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.169" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.170" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
+    <definedName name="_xlchart.v1.171" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.172" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.173" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.174" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.175" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
+    <definedName name="_xlchart.v1.176" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.177" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.178" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
+    <definedName name="_xlchart.v1.179" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.180" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
+    <definedName name="_xlchart.v1.181" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.182" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.183" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.184" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.185" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
+    <definedName name="_xlchart.v1.186" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.187" hidden="1">'exp3(III)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.188" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.189" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
+    <definedName name="_xlchart.v1.190" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
+    <definedName name="_xlchart.v1.191" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.192" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.193" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.194" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
+    <definedName name="_xlchart.v1.195" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
+    <definedName name="_xlchart.v1.196" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'exp3(III)'!$F$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'exp7 (II)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'exp3(III)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'exp3(III)'!$F$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'exp3(III)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'exp8'!$A$3:$A$62</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'exp8'!$C$2</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'exp3(III)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'exp8'!$C$3:$C$62</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">'exp3(III)'!$D$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'exp8'!$D$2</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">'exp3(III)'!$F$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'exp8'!$D$3:$D$62</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -79,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="76">
   <si>
     <t>M</t>
   </si>
@@ -296,11 +454,26 @@
   <si>
     <t>alpha = 0.9999</t>
   </si>
+  <si>
+    <t>Download (Full Procedure)</t>
+  </si>
+  <si>
+    <t>Upload (Full Procedure)</t>
+  </si>
+  <si>
+    <t>Download (W/O IDA)</t>
+  </si>
+  <si>
+    <t>Upload (W/O IDA)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="12"/>
@@ -447,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,6 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8937,6 +9111,786 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Upload Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A925-404E-9AE7-90514B38A377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A925-404E-9AE7-90514B38A377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A925-404E-9AE7-90514B38A377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A925-404E-9AE7-90514B38A377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A925-404E-9AE7-90514B38A377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A925-404E-9AE7-90514B38A377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2040868192"/>
+        <c:axId val="2012382848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2040868192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2012382848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2012382848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2040868192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -9801,6 +10755,1694 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Download Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.9251701943329804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.254172716191199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.980161957964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.4385738160681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.6047935750394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.629560371846599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95B6-2D42-B55B-15577D12F6B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.6436909797083699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.5313015239942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.811830924293099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.854597777917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.565865153377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.379484336606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95B6-2D42-B55B-15577D12F6B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$L$2:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.9590863254723798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.4972558664213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.8029811382343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.578499707570099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6909973242113292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6234959336925101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-95B6-2D42-B55B-15577D12F6B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-95B6-2D42-B55B-15577D12F6B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-95B6-2D42-B55B-15577D12F6B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-95B6-2D42-B55B-15577D12F6B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2040868192"/>
+        <c:axId val="2012382848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2040868192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2012382848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2012382848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2040868192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3258955901289824E-2"/>
+          <c:y val="0.92189705453484982"/>
+          <c:w val="0.89884401849232654"/>
+          <c:h val="7.8102945465150189E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Download Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$J$34:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0105318801585899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.3670473583531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.6948761656123</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000">
+                  <c:v>15.533012961944101</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000">
+                  <c:v>14.6860509456668</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>14.833903875112901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-035A-0E46-AEFC-035D8DF11097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$K$34:$K$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.3428542588729808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.566320434723499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.024939264140201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.6555311910091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.904454962722101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.9978297184949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-035A-0E46-AEFC-035D8DF11097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$L$34:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.9292180051796493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.7137380701081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.2103553413207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.649803664804701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0133112606845192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5246232046785995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-035A-0E46-AEFC-035D8DF11097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$M$34:$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-035A-0E46-AEFC-035D8DF11097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$N$34:$N$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-035A-0E46-AEFC-035D8DF11097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$O$34:$O$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-035A-0E46-AEFC-035D8DF11097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2040868192"/>
+        <c:axId val="2012382848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2040868192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2012382848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2012382848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2040868192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3258955901289824E-2"/>
+          <c:y val="0.92189705453484982"/>
+          <c:w val="0.89884401849232654"/>
+          <c:h val="7.8102945465150189E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -15058,42 +17700,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.64</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.69</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -15147,7 +17789,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A5AA13A6-A85F-5B44-B65F-F97A864255A0}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.45</cx:f>
               <cx:v>K=1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15160,7 +17802,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{67832875-EC24-1340-A8BD-B2A91D8AACE2}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>K=2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15173,7 +17815,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4531035B-DE32-CA47-95B7-97D11E90A937}" formatIdx="3">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.55</cx:f>
               <cx:v>K=3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15186,7 +17828,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0A5F62C4-D924-7B4E-AADD-F2192CA3FF33}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.60</cx:f>
               <cx:v>K=4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15199,7 +17841,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-34E6-4A48-A896-7BEED96F1E0A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.65</cx:f>
               <cx:v>K=5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -15212,15 +17854,71 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Network Size</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Network Size</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>NODE_LOOKUP Steps</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>NODE_LOOKUP Steps</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="b" align="ctr" overlay="0"/>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -15426,6 +18124,126 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -18874,6 +21692,1554 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -23635,8 +28001,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -23675,7 +28041,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6496050" y="190500"/>
-              <a:ext cx="7753350" cy="3289300"/>
+              <a:ext cx="7753350" cy="3924300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -23865,6 +28231,212 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E9F1AC-E06E-0640-9550-2016E33D501F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C0733BC-7C02-8E4C-B8B0-8C4EBC58E20C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F25D71C-B76C-264F-8336-907EF7FF2442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.04074</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11111</cdr:x>
+      <cdr:y>0.14815</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5206537-A3EF-044A-920B-EC66AC4DEC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="111760"/>
+          <a:ext cx="508000" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MB/S</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76111</cdr:x>
+      <cdr:y>0.85926</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99667</cdr:x>
+      <cdr:y>0.96667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4067EEC8-ECFC-164A-91BD-C2F5636DBF67}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3479800" y="2357120"/>
+          <a:ext cx="1076960" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NUM_SHARDS</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -23940,6 +28512,180 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.04074</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11111</cdr:x>
+      <cdr:y>0.14815</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5206537-A3EF-044A-920B-EC66AC4DEC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="111760"/>
+          <a:ext cx="508000" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MB/S</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76111</cdr:x>
+      <cdr:y>0.85926</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99667</cdr:x>
+      <cdr:y>0.96667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4067EEC8-ECFC-164A-91BD-C2F5636DBF67}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3479800" y="2357120"/>
+          <a:ext cx="1076960" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NUM_SHARDS</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.04074</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11111</cdr:x>
+      <cdr:y>0.14815</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5206537-A3EF-044A-920B-EC66AC4DEC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="111760"/>
+          <a:ext cx="508000" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MB/S</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76111</cdr:x>
+      <cdr:y>0.85926</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99667</cdr:x>
+      <cdr:y>0.96667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4067EEC8-ECFC-164A-91BD-C2F5636DBF67}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3479800" y="2357120"/>
+          <a:ext cx="1076960" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NUM_SHARDS</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27126,10 +31872,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DDFA14-2BA6-7147-8061-27485626EA68}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27609,6 +32355,9 @@
       <c r="F20">
         <v>7.8529999999999998</v>
       </c>
+      <c r="G20">
+        <v>8.9612499999999997</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
@@ -27630,6 +32379,9 @@
       <c r="F21">
         <v>8.5603999999999996</v>
       </c>
+      <c r="G21">
+        <v>9.9649999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
@@ -27651,6 +32403,9 @@
       <c r="F22">
         <v>9.6771666666666594</v>
       </c>
+      <c r="G22">
+        <v>10.6231666666666</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
@@ -27669,6 +32424,9 @@
       <c r="F23">
         <v>10.497</v>
       </c>
+      <c r="G23">
+        <v>11.446999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
@@ -27690,7 +32448,9 @@
       <c r="F24">
         <v>11.2865</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1">
+        <v>12.945</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
@@ -27712,6 +32472,9 @@
       <c r="F25">
         <v>11.9475555555555</v>
       </c>
+      <c r="G25">
+        <v>13.868</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
@@ -27733,6 +32496,9 @@
       <c r="F26">
         <v>12.4268</v>
       </c>
+      <c r="G26">
+        <v>14.4655</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
@@ -27754,6 +32520,9 @@
       <c r="F27">
         <v>13.0780909090909</v>
       </c>
+      <c r="G27">
+        <v>15.1498181818181</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
@@ -27775,6 +32544,9 @@
       <c r="F28">
         <v>13.9288333333333</v>
       </c>
+      <c r="G28">
+        <v>15.7535833333333</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
@@ -27796,6 +32568,9 @@
       <c r="F29">
         <v>14.427846153846099</v>
       </c>
+      <c r="G29">
+        <v>16.379692307692299</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
@@ -27817,6 +32592,9 @@
       <c r="F30">
         <v>15.1064285714285</v>
       </c>
+      <c r="G30">
+        <v>17.128285714285699</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
@@ -27837,6 +32615,549 @@
       </c>
       <c r="F31">
         <v>15.6858666666666</v>
+      </c>
+      <c r="G31">
+        <v>17.971466666666601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f>A32*10</f>
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>3.9089999999999998</v>
+      </c>
+      <c r="D32">
+        <v>3.081</v>
+      </c>
+      <c r="E32">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="F32">
+        <v>4.51</v>
+      </c>
+      <c r="G32">
+        <v>5.407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:B46" si="2">A33*10</f>
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>6.1630000000000003</v>
+      </c>
+      <c r="D33">
+        <v>4.0415000000000001</v>
+      </c>
+      <c r="E33">
+        <v>4.7865000000000002</v>
+      </c>
+      <c r="F33">
+        <v>5.7060000000000004</v>
+      </c>
+      <c r="G33">
+        <v>6.6680000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>8.3936666666666593</v>
+      </c>
+      <c r="D34">
+        <v>4.6050000000000004</v>
+      </c>
+      <c r="E34">
+        <v>6.0166666666666604</v>
+      </c>
+      <c r="F34">
+        <v>6.8129999999999997</v>
+      </c>
+      <c r="G34">
+        <v>7.3436666666666603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>9.73</v>
+      </c>
+      <c r="D35">
+        <v>5.3220000000000001</v>
+      </c>
+      <c r="E35">
+        <v>6.6185</v>
+      </c>
+      <c r="F35">
+        <v>8.0762499999999999</v>
+      </c>
+      <c r="G35">
+        <v>9.1425000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>11.3764</v>
+      </c>
+      <c r="D36">
+        <v>5.7054</v>
+      </c>
+      <c r="E36">
+        <v>7.5696000000000003</v>
+      </c>
+      <c r="F36">
+        <v>8.5085999999999995</v>
+      </c>
+      <c r="G36">
+        <v>10.005599999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>12.8206666666666</v>
+      </c>
+      <c r="D37">
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="E37">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="F37">
+        <v>9.7379999999999995</v>
+      </c>
+      <c r="G37">
+        <v>10.5541666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C38">
+        <v>13.6557142857142</v>
+      </c>
+      <c r="D38">
+        <v>6.5497142857142796</v>
+      </c>
+      <c r="E38">
+        <v>8.6818571428571403</v>
+      </c>
+      <c r="F38">
+        <v>10.600142857142799</v>
+      </c>
+      <c r="G38">
+        <v>11.4897142857142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>14.4885</v>
+      </c>
+      <c r="D39">
+        <v>6.9027500000000002</v>
+      </c>
+      <c r="E39">
+        <v>9.2360000000000007</v>
+      </c>
+      <c r="F39">
+        <v>11.27375</v>
+      </c>
+      <c r="G39" s="1">
+        <v>13.005125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>15.765333333333301</v>
+      </c>
+      <c r="D40">
+        <v>6.3018888888888798</v>
+      </c>
+      <c r="E40">
+        <v>9.8213333333333299</v>
+      </c>
+      <c r="F40">
+        <v>11.907111111111099</v>
+      </c>
+      <c r="G40">
+        <v>13.8651111111111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>16.877099999999999</v>
+      </c>
+      <c r="D41">
+        <v>7.4260000000000002</v>
+      </c>
+      <c r="E41">
+        <v>10.3842</v>
+      </c>
+      <c r="F41">
+        <v>12.4377</v>
+      </c>
+      <c r="G41">
+        <v>14.5283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="C42">
+        <v>18.002636363636299</v>
+      </c>
+      <c r="D42">
+        <v>7.6139090909090896</v>
+      </c>
+      <c r="E42">
+        <v>10.9634545454545</v>
+      </c>
+      <c r="F42">
+        <v>13.0453636363636</v>
+      </c>
+      <c r="G42">
+        <v>15.086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="C43">
+        <v>18.895583333333299</v>
+      </c>
+      <c r="D43">
+        <v>7.88225</v>
+      </c>
+      <c r="E43">
+        <v>11.257999999999999</v>
+      </c>
+      <c r="F43">
+        <v>13.8689166666666</v>
+      </c>
+      <c r="G43">
+        <v>15.8128333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="C44">
+        <v>19.620076923076901</v>
+      </c>
+      <c r="D44">
+        <v>8.1416923076922991</v>
+      </c>
+      <c r="E44">
+        <v>11.6842307692307</v>
+      </c>
+      <c r="F44">
+        <v>14.507307692307601</v>
+      </c>
+      <c r="G44">
+        <v>16.219000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="C45">
+        <v>20.324285714285701</v>
+      </c>
+      <c r="D45">
+        <v>8.4535</v>
+      </c>
+      <c r="E45">
+        <v>12.090714285714199</v>
+      </c>
+      <c r="F45">
+        <v>15.1179285714285</v>
+      </c>
+      <c r="G45">
+        <v>16.915571428571401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="C46">
+        <v>20.8547333333333</v>
+      </c>
+      <c r="D46">
+        <v>8.7390000000000008</v>
+      </c>
+      <c r="E46">
+        <v>12.4075333333333</v>
+      </c>
+      <c r="F46">
+        <v>15.5947333333333</v>
+      </c>
+      <c r="G46">
+        <v>17.991800000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <f>A47*10</f>
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>2.9055555555555501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:B61" si="3">A48*10</f>
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>4.0155000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>4.5750000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>5.3247499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>5.6680000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>6.09033333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="D53">
+        <v>6.52457142857142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="D54">
+        <v>6.852125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="D55">
+        <v>7.1369999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>7.3886000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="D57">
+        <v>7.59027272727272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="D58">
+        <v>7.8834999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="D59">
+        <v>8.2215384615384597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="D60">
+        <v>8.4364285714285696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="D61">
+        <v>8.6921999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -28084,6 +33405,358 @@
       <c r="D60">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE116D22-F5F9-204B-8FD3-7687A6A79B1E}">
+  <dimension ref="A1:O39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="15" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="24">
+        <v>7.9251701943329804</v>
+      </c>
+      <c r="K2" s="24">
+        <v>7.6436909797083699</v>
+      </c>
+      <c r="L2" s="24">
+        <v>6.9590863254723798</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="24">
+        <v>12.254172716191199</v>
+      </c>
+      <c r="K3" s="24">
+        <v>13.5313015239942</v>
+      </c>
+      <c r="L3" s="24">
+        <v>11.4972558664213</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="24">
+        <v>14.980161957964</v>
+      </c>
+      <c r="K4" s="24">
+        <v>14.811830924293099</v>
+      </c>
+      <c r="L4" s="24">
+        <v>12.8029811382343</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="24">
+        <v>14.4385738160681</v>
+      </c>
+      <c r="K5" s="24">
+        <v>16.854597777917</v>
+      </c>
+      <c r="L5" s="24">
+        <v>10.578499707570099</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6" s="24">
+        <v>13.6047935750394</v>
+      </c>
+      <c r="K6" s="24">
+        <v>13.565865153377</v>
+      </c>
+      <c r="L6" s="24">
+        <v>8.6909973242113292</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7" s="24">
+        <v>12.629560371846599</v>
+      </c>
+      <c r="K7" s="24">
+        <v>15.379484336606</v>
+      </c>
+      <c r="L7" s="24">
+        <v>9.6234959336925101</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" t="s">
+        <v>23</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>8.0105318801585899</v>
+      </c>
+      <c r="K34" s="24">
+        <v>8.3428542588729808</v>
+      </c>
+      <c r="L34" s="24">
+        <v>8.9292180051796493</v>
+      </c>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>12.3670473583531</v>
+      </c>
+      <c r="K35" s="24">
+        <v>14.566320434723499</v>
+      </c>
+      <c r="L35" s="24">
+        <v>13.7137380701081</v>
+      </c>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>16.6948761656123</v>
+      </c>
+      <c r="K36" s="24">
+        <v>17.024939264140201</v>
+      </c>
+      <c r="L36" s="24">
+        <v>12.2103553413207</v>
+      </c>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37" s="24">
+        <v>15.533012961944101</v>
+      </c>
+      <c r="K37" s="24">
+        <v>17.6555311910091</v>
+      </c>
+      <c r="L37" s="24">
+        <v>10.649803664804701</v>
+      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38" s="24">
+        <v>14.6860509456668</v>
+      </c>
+      <c r="K38" s="24">
+        <v>13.904454962722101</v>
+      </c>
+      <c r="L38" s="24">
+        <v>9.0133112606845192</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="I39">
+        <v>32</v>
+      </c>
+      <c r="J39" s="24">
+        <v>14.833903875112901</v>
+      </c>
+      <c r="K39" s="24">
+        <v>13.9978297184949</v>
+      </c>
+      <c r="L39" s="24">
+        <v>8.5246232046785995</v>
+      </c>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29121,7 +34794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A20C755-9EF6-AC4B-82D1-3BBA1E1B1860}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="J2" sqref="J2:O7"/>
     </sheetView>
   </sheetViews>

--- a/img_src/plots.xlsx
+++ b/img_src/plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom6311tom6311/Desktop/ntu-thesis/img_src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781AD4FA-36BA-D941-B304-9F22815B94E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F8670-73E7-F843-99A4-9C9A49F1D0D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="1" activeTab="13" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="3" activeTab="14" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
   </bookViews>
   <sheets>
     <sheet name="exp3" sheetId="1" r:id="rId1"/>
@@ -27,207 +27,46 @@
     <sheet name="exp3(III)" sheetId="13" r:id="rId12"/>
     <sheet name="exp4(IV)" sheetId="14" r:id="rId13"/>
     <sheet name="exp5 (III)" sheetId="15" r:id="rId14"/>
+    <sheet name="exp6(II)" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'exp7 (II)'!$A$3:$A$32</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'exp7 (II)'!$D$2</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'exp8'!$E$2</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.108" hidden="1">'exp3(III)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.109" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'exp8'!$E$3:$E$62</definedName>
-    <definedName name="_xlchart.v1.110" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.111" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
-    <definedName name="_xlchart.v1.112" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.113" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.114" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.115" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.116" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
-    <definedName name="_xlchart.v1.117" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.118" hidden="1">'exp3(III)'!$F$1</definedName>
-    <definedName name="_xlchart.v1.119" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.120" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.121" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
-    <definedName name="_xlchart.v1.122" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.123" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.124" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
-    <definedName name="_xlchart.v1.125" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.126" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
-    <definedName name="_xlchart.v1.127" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.128" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.129" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.130" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.131" hidden="1">'exp3(III)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.132" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
-    <definedName name="_xlchart.v1.133" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.134" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.135" hidden="1">'exp3(III)'!$F$1</definedName>
-    <definedName name="_xlchart.v1.136" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.137" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.138" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
-    <definedName name="_xlchart.v1.139" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
-    <definedName name="_xlchart.v1.140" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.141" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
-    <definedName name="_xlchart.v1.142" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.143" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.144" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.145" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.146" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
-    <definedName name="_xlchart.v1.147" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.148" hidden="1">'exp3(III)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.149" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.150" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.151" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
-    <definedName name="_xlchart.v1.152" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.153" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.154" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.155" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.156" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
-    <definedName name="_xlchart.v1.157" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.158" hidden="1">'exp3(III)'!$F$1</definedName>
-    <definedName name="_xlchart.v1.159" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.160" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.161" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
-    <definedName name="_xlchart.v1.162" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.163" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.164" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
-    <definedName name="_xlchart.v1.165" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.166" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
-    <definedName name="_xlchart.v1.167" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.168" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.169" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.170" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
-    <definedName name="_xlchart.v1.171" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.172" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.173" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.174" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.175" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
-    <definedName name="_xlchart.v1.176" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.177" hidden="1">'exp3(III)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.178" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
-    <definedName name="_xlchart.v1.179" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.180" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
-    <definedName name="_xlchart.v1.181" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.182" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.183" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.184" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.185" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
-    <definedName name="_xlchart.v1.186" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.187" hidden="1">'exp3(III)'!$F$1</definedName>
-    <definedName name="_xlchart.v1.188" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.189" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
-    <definedName name="_xlchart.v1.190" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
-    <definedName name="_xlchart.v1.191" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.192" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.193" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
-    <definedName name="_xlchart.v1.194" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.195" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
-    <definedName name="_xlchart.v1.196" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'exp3(III)'!$B$2:$B$62</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'exp3(III)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'exp3(III)'!$C$2:$C$62</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'exp3(III)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'exp3(III)'!$D$2:$D$62</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'exp3(III)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'exp3(III)'!$E$2:$E$62</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'exp3(III)'!$F$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'exp7 (II)'!$D$3:$D$32</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'exp3(III)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'exp3(III)'!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'exp3(III)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'exp3(III)'!$G$2:$G$62</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'exp6(II)'!$B$2:$B$62</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'exp6(II)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'exp6(II)'!$C$2:$C$62</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'exp6(II)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'exp6(II)'!$D$2:$D$62</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'exp6(II)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'exp6(II)'!$E$2:$E$62</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'exp7 (II)'!$E$2</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'exp3(III)'!$F$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'exp6(II)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'exp6(II)'!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'exp6(II)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'exp6(II)'!$G$2:$G$62</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'exp8'!$A$3:$A$62</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'exp3(III)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'exp8'!$C$2</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'exp3(III)'!$F$1</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'exp8'!$C$3:$C$62</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'exp3(III)'!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'exp3(III)'!$B$2:$B$46</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'exp3(III)'!$B$2:$B$61</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'exp3(III)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'exp3(III)'!$C$2:$C$16</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'exp3(III)'!$C$2:$C$31</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'exp3(III)'!$C$2:$C$46</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">'exp3(III)'!$C$2:$C$61</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'exp3(III)'!$D$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'exp8'!$D$2</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'exp3(III)'!$D$2:$D$16</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'exp3(III)'!$D$2:$D$31</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'exp3(III)'!$D$2:$D$46</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'exp3(III)'!$D$2:$D$61</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">'exp3(III)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">'exp3(III)'!$E$2:$E$16</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">'exp3(III)'!$E$2:$E$31</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">'exp3(III)'!$E$2:$E$46</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">'exp3(III)'!$E$2:$E$61</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">'exp3(III)'!$F$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'exp8'!$D$3:$D$62</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">'exp3(III)'!$F$2:$F$16</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">'exp3(III)'!$F$2:$F$31</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">'exp3(III)'!$F$2:$F$46</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">'exp3(III)'!$F$2:$F$61</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">'exp3(III)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">'exp3(III)'!$G$2:$G$16</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">'exp3(III)'!$G$2:$G$31</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">'exp3(III)'!$G$2:$G$46</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">'exp3(III)'!$G$2:$G$61</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">'exp3(III)'!$B$2:$B$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -237,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="76">
   <si>
     <t>M</t>
   </si>
@@ -672,6 +511,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,7 +527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5951,8 +5790,8 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="90"/>
-      <c:rotY val="0"/>
+      <c:rotX val="25"/>
+      <c:rotY val="30"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
@@ -6003,7 +5842,7 @@
           <c:h val="0.73382728200641578"/>
         </c:manualLayout>
       </c:layout>
-      <c:surfaceChart>
+      <c:surface3DChart>
         <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6331,7 +6170,7 @@
         <c:axId val="820915759"/>
         <c:axId val="820909055"/>
         <c:axId val="821275695"/>
-      </c:surfaceChart>
+      </c:surface3DChart>
       <c:catAx>
         <c:axId val="820915759"/>
         <c:scaling>
@@ -6436,6 +6275,8 @@
         <c:axId val="820909055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.96000000000000008"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6503,7 +6344,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
@@ -6600,8 +6441,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.76461167747591285"/>
           <c:y val="0.3236081173546772"/>
-          <c:w val="0.14039326334208224"/>
-          <c:h val="0.39062773403324585"/>
+          <c:w val="0.11866736728289833"/>
+          <c:h val="0.31680421829935762"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6743,8 +6584,8 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="90"/>
-      <c:rotY val="0"/>
+      <c:rotX val="25"/>
+      <c:rotY val="30"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
@@ -6795,7 +6636,7 @@
           <c:h val="0.73382728200641578"/>
         </c:manualLayout>
       </c:layout>
-      <c:surfaceChart>
+      <c:surface3DChart>
         <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7180,7 +7021,7 @@
         <c:axId val="820915759"/>
         <c:axId val="820909055"/>
         <c:axId val="821275695"/>
-      </c:surfaceChart>
+      </c:surface3DChart>
       <c:catAx>
         <c:axId val="820915759"/>
         <c:scaling>
@@ -7285,6 +7126,8 @@
         <c:axId val="820909055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.75000000000000011"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7352,7 +7195,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
@@ -7449,8 +7292,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.76461167747591285"/>
           <c:y val="0.3236081173546772"/>
-          <c:w val="0.14039326334208224"/>
-          <c:h val="0.39062773403324585"/>
+          <c:w val="0.11858492790168822"/>
+          <c:h val="0.23760307589143295"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7576,7 +7419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Retrievability -- 𝜶 = 0.99</a:t>
+              <a:t>Retrievability -- 𝜶 = 0.999</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7592,8 +7435,8 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="90"/>
-      <c:rotY val="0"/>
+      <c:rotX val="25"/>
+      <c:rotY val="30"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
@@ -7644,7 +7487,7 @@
           <c:h val="0.73382728200641578"/>
         </c:manualLayout>
       </c:layout>
-      <c:surfaceChart>
+      <c:surface3DChart>
         <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7972,7 +7815,7 @@
         <c:axId val="820915759"/>
         <c:axId val="820909055"/>
         <c:axId val="821275695"/>
-      </c:surfaceChart>
+      </c:surface3DChart>
       <c:catAx>
         <c:axId val="820915759"/>
         <c:scaling>
@@ -8077,6 +7920,7 @@
         <c:axId val="820909055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.99"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8144,7 +7988,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
@@ -8241,8 +8085,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.76461167747591285"/>
           <c:y val="0.3236081173546772"/>
-          <c:w val="0.14039326334208224"/>
-          <c:h val="0.39062773403324585"/>
+          <c:w val="0.12937481464608402"/>
+          <c:h val="0.15840210914967881"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8368,7 +8212,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Retrievability -- 𝜶 = 0.99</a:t>
+              <a:t>Retrievability -- 𝜶 = 0.9999</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8384,8 +8228,8 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="90"/>
-      <c:rotY val="0"/>
+      <c:rotX val="25"/>
+      <c:rotY val="30"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
@@ -8436,7 +8280,7 @@
           <c:h val="0.73382728200641578"/>
         </c:manualLayout>
       </c:layout>
-      <c:surfaceChart>
+      <c:surface3DChart>
         <c:wireframe val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -8764,7 +8608,7 @@
         <c:axId val="820915759"/>
         <c:axId val="820909055"/>
         <c:axId val="821275695"/>
-      </c:surfaceChart>
+      </c:surface3DChart>
       <c:catAx>
         <c:axId val="820915759"/>
         <c:scaling>
@@ -8869,6 +8713,7 @@
         <c:axId val="820909055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.999"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8936,7 +8781,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
@@ -9033,8 +8878,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.76461167747591285"/>
           <c:y val="0.3236081173546772"/>
-          <c:w val="0.14039326334208224"/>
-          <c:h val="0.39062773403324585"/>
+          <c:w val="0.15078970937245542"/>
+          <c:h val="0.15840210914967881"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9226,7 +9071,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9253,10 +9098,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$B$2:$B$7</c:f>
+              <c:f>'exp5 (III)'!$B$26:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1267725343951831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9749489180975308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.335502029508801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.270947258607066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.742842328445732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0033891569444968</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9307,7 +9170,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9334,10 +9197,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$C$2:$C$7</c:f>
+              <c:f>'exp5 (III)'!$C$26:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6524895947450302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7201810724938742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.489275523529734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.711366980447036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.964833864724636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.565851090821166</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9388,7 +9269,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9415,10 +9296,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$D$2:$D$7</c:f>
+              <c:f>'exp5 (III)'!$D$26:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8339349864454366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3968022410162035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.8041711221612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.989385150798736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.8025265287962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.00386060348373</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9469,7 +9368,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9496,10 +9395,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$E$2:$E$7</c:f>
+              <c:f>'exp5 (III)'!$E$26:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8914607052318537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6148888377518364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.253329504070532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.679247607557432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.020281130014496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.512410765639835</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9550,7 +9467,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9577,10 +9494,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$F$2:$F$7</c:f>
+              <c:f>'exp5 (III)'!$F$26:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8977925235896835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6100960172292229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.204595249882033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.980316616843101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.434981973125197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.791351660618538</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9631,7 +9566,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -9658,10 +9593,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$G$2:$G$7</c:f>
+              <c:f>'exp5 (III)'!$G$26:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7219501390830496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.006273565049753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.892043984949368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.248069516666632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.772984767979167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.812340772036766</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10873,7 +10826,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10900,27 +10853,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$J$2:$J$7</c:f>
+              <c:f>'exp5 (III)'!$J$26:$J$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.9251701943329804</c:v>
+                  <c:v>8.3390950168329194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.254172716191199</c:v>
+                  <c:v>14.235886062996235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.980161957964</c:v>
+                  <c:v>21.225838961571966</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.4385738160681</c:v>
+                  <c:v>25.748032151389566</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.6047935750394</c:v>
+                  <c:v>25.351359873634234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.629560371846599</c:v>
+                  <c:v>21.84488630126037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10972,7 +10925,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -10999,27 +10952,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$K$2:$K$7</c:f>
+              <c:f>'exp5 (III)'!$K$26:$K$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.6436909797083699</c:v>
+                  <c:v>9.3212936265377095</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.5313015239942</c:v>
+                  <c:v>17.584998449015799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.811830924293099</c:v>
+                  <c:v>31.198191053437</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.854597777917</c:v>
+                  <c:v>49.01896896496536</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.565865153377</c:v>
+                  <c:v>54.316971684735364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.379484336606</c:v>
+                  <c:v>40.91307637345593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11071,7 +11024,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11098,27 +11051,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$L$2:$L$7</c:f>
+              <c:f>'exp5 (III)'!$L$26:$L$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.9590863254723798</c:v>
+                  <c:v>9.7004834553782793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.4972558664213</c:v>
+                  <c:v>19.002502027958396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.8029811382343</c:v>
+                  <c:v>36.224428333432996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.578499707570099</c:v>
+                  <c:v>58.630868537354331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6909973242113292</c:v>
+                  <c:v>70.068145707492064</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6234959336925101</c:v>
+                  <c:v>61.054408550975602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11170,7 +11123,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11197,10 +11150,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$M$2:$M$7</c:f>
+              <c:f>'exp5 (III)'!$M$26:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.8275322221085304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.530615543977834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.36258743635517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.841508786133168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.442616148809591</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.976182360570839</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11251,7 +11222,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11278,10 +11249,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$N$2:$N$7</c:f>
+              <c:f>'exp5 (III)'!$N$26:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.8729659515812038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.609631110042468</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.886687865557029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.620072885471565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.585840403948936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.174911446615937</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11332,7 +11321,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$2:$A$7</c:f>
+              <c:f>'exp5 (III)'!$A$26:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11359,10 +11348,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$O$2:$O$7</c:f>
+              <c:f>'exp5 (III)'!$O$26:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.8583131857383961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.320639727683034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.761041448685496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.606172675855966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.547979711398966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.561587786817462</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11467,7 +11474,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11717,7 +11724,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11744,27 +11751,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$J$34:$J$39</c:f>
+              <c:f>'exp5 (III)'!$J$51:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.0105318801585899</c:v>
+                  <c:v>8.7461772217782396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.3670473583531</c:v>
+                  <c:v>15.169856727208201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.6948761656123</c:v>
+                  <c:v>23.146881541403602</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.000">
-                  <c:v>15.533012961944101</c:v>
+                  <c:v>28.3835694484874</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.000">
-                  <c:v>14.6860509456668</c:v>
+                  <c:v>27.739214157333699</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.000">
-                  <c:v>14.833903875112901</c:v>
+                  <c:v>24.6837095658863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11816,7 +11823,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11843,27 +11850,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$K$34:$K$39</c:f>
+              <c:f>'exp5 (III)'!$K$51:$K$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.3428542588729808</c:v>
+                  <c:v>9.6337135484679095</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.566320434723499</c:v>
+                  <c:v>18.522996166698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.024939264140201</c:v>
+                  <c:v>33.6673712449428</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.6555311910091</c:v>
+                  <c:v>54.854626074188197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.904454962722101</c:v>
+                  <c:v>60.949870363151398</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.9978297184949</c:v>
+                  <c:v>45.3294080790359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11915,7 +11922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11942,27 +11949,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$L$34:$L$39</c:f>
+              <c:f>'exp5 (III)'!$L$51:$L$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.9292180051796493</c:v>
+                  <c:v>9.9001521876818597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.7137380701081</c:v>
+                  <c:v>19.602585576673601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.2103553413207</c:v>
+                  <c:v>38.059094576702797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.649803664804701</c:v>
+                  <c:v>67.270879836608998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0133112606845192</c:v>
+                  <c:v>81.789530965818798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5246232046785995</c:v>
+                  <c:v>72.969808086104194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12014,7 +12021,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12041,10 +12048,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$M$34:$M$39</c:f>
+              <c:f>'exp5 (III)'!$M$51:$M$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9733619878660402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.892917091720101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.168701507192502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.500245195077703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.968370663529299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.079736907880303</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12095,7 +12120,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12122,10 +12147,28 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$N$34:$N$39</c:f>
+              <c:f>'exp5 (III)'!$N$51:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9931462514625498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.962747791669599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.243294671839102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.863386428527697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.660604503809601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.790303177675</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12176,7 +12219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$A$34:$A$39</c:f>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -12203,10 +12246,25 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'exp5 (III)'!$O$34:$O$39</c:f>
+              <c:f>'exp5 (III)'!$O$51:$O$56</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9975363976505704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.986060414908401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.890204103530998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.053738773945199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.720124578788003</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12214,6 +12272,904 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-035A-0E46-AEFC-035D8DF11097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2040868192"/>
+        <c:axId val="2012382848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2040868192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2012382848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2012382848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2040868192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3258955901289824E-2"/>
+          <c:y val="0.92189705453484982"/>
+          <c:w val="0.89884401849232654"/>
+          <c:h val="7.8102945465150189E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Upload Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$B$51:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3042289573661598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4384107818070202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2269587169309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.398761683134399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.933411283786199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7863039104980096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0E0-BA4E-A82C-F5A3626BD08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$C$51:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7870374585683502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1115780549212797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.436732721397199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.021523598917302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.639120336117799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.161393601089198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0E0-BA4E-A82C-F5A3626BD08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$D$51:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9308781794742096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7136390371594103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.3686251260389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.209816152967001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.213070609646302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.812193373032798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C0E0-BA4E-A82C-F5A3626BD08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$E$51:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9801773899287403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8985572801913495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.3996567858388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.199749473385999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.633978689368703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.807472482515202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C0E0-BA4E-A82C-F5A3626BD08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$F$51:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9923130195279999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9683726327862399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.365797276004301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.966546898850403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.702271219833797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.110726367225801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C0E0-BA4E-A82C-F5A3626BD08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'exp5 (III)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S = 1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$A$51:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'exp5 (III)'!$G$51:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.9956495994770798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9798748774774992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.7455285840737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.666436309972198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.481539395606397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.035175137211503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C0E0-BA4E-A82C-F5A3626BD08D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17700,42 +18656,42 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.69</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -17789,7 +18745,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A5AA13A6-A85F-5B44-B65F-F97A864255A0}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>K=1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17802,7 +18758,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{67832875-EC24-1340-A8BD-B2A91D8AACE2}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>K=2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17815,7 +18771,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4531035B-DE32-CA47-95B7-97D11E90A937}" formatIdx="3">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>K=3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17828,7 +18784,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0A5F62C4-D924-7B4E-AADD-F2192CA3FF33}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>K=4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17841,7 +18797,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000000-34E6-4A48-A896-7BEED96F1E0A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>K=5</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17910,6 +18866,234 @@
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
                 <a:t>NODE_LOOKUP Steps</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>VALUE_LOOKUP Efficiency</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>VALUE_LOOKUP Efficiency</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A5AA13A6-A85F-5B44-B65F-F97A864255A0}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>K=1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{67832875-EC24-1340-A8BD-B2A91D8AACE2}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>K=2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4531035B-DE32-CA47-95B7-97D11E90A937}" formatIdx="3">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>K=3</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0A5F62C4-D924-7B4E-AADD-F2192CA3FF33}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>K=4</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000000-34E6-4A48-A896-7BEED96F1E0A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>K=5</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Network Size</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Network Size</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>VALUE_LOOKUP Steps</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>VALUE_LOOKUP Steps</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -18283,6 +19467,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -23240,6 +24504,1037 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -28078,14 +30373,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>700128</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395132</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>63566</xdr:rowOff>
     </xdr:to>
@@ -28116,14 +30411,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>700128</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395132</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>587960</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>63567</xdr:rowOff>
     </xdr:to>
@@ -28154,14 +30449,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>700128</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395132</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>63566</xdr:rowOff>
     </xdr:to>
@@ -28192,14 +30487,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>700128</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1628</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>395132</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>63566</xdr:rowOff>
     </xdr:to>
@@ -28312,15 +30607,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28342,6 +30637,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BD7C5B-D6AF-7B46-9A14-8EEF8B41A956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -28686,6 +31019,178 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.04074</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11111</cdr:x>
+      <cdr:y>0.14815</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5206537-A3EF-044A-920B-EC66AC4DEC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="111760"/>
+          <a:ext cx="508000" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MB/S</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76111</cdr:x>
+      <cdr:y>0.85926</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99667</cdr:x>
+      <cdr:y>0.96667</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4067EEC8-ECFC-164A-91BD-C2F5636DBF67}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3479800" y="2357120"/>
+          <a:ext cx="1076960" cy="294640"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NUM_SHARDS</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EED8FF8-81F4-AB4C-BE7E-19A49427D077}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6496050" y="190500"/>
+              <a:ext cx="7753350" cy="3924300"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30271,14 +32776,14 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="17"/>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="17"/>
@@ -30883,11 +33388,11 @@
         <v>53</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
@@ -30908,7 +33413,7 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="23">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C3">
@@ -30925,7 +33430,7 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4">
         <v>122.072</v>
       </c>
@@ -30940,7 +33445,7 @@
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5">
         <v>121.983</v>
       </c>
@@ -30955,7 +33460,7 @@
       <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6">
         <v>123.60599999999999</v>
       </c>
@@ -30970,7 +33475,7 @@
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7">
         <v>122.94</v>
       </c>
@@ -30985,7 +33490,7 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="23">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C8">
@@ -31002,7 +33507,7 @@
       <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9">
         <v>203.05</v>
       </c>
@@ -31017,7 +33522,7 @@
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10">
         <v>203.69499999999999</v>
       </c>
@@ -31032,7 +33537,7 @@
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11">
         <v>205.625</v>
       </c>
@@ -31047,7 +33552,7 @@
       <c r="A12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12">
         <v>204.60900000000001</v>
       </c>
@@ -31062,7 +33567,7 @@
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="23">
         <v>6.25E-2</v>
       </c>
       <c r="C13">
@@ -31079,7 +33584,7 @@
       <c r="A14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14">
         <v>284.03199999999998</v>
       </c>
@@ -31094,7 +33599,7 @@
       <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15">
         <v>285.40499999999997</v>
       </c>
@@ -31109,7 +33614,7 @@
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16">
         <v>287.64299999999997</v>
       </c>
@@ -31124,7 +33629,7 @@
       <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17">
         <v>286.27499999999998</v>
       </c>
@@ -31139,7 +33644,7 @@
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="23">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C18">
@@ -31156,7 +33661,7 @@
       <c r="A19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19">
         <v>365.012</v>
       </c>
@@ -31171,7 +33676,7 @@
       <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20">
         <v>367.11</v>
       </c>
@@ -31186,7 +33691,7 @@
       <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21">
         <v>369.64699999999999</v>
       </c>
@@ -31201,7 +33706,7 @@
       <c r="A22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="18">
         <v>367.94299999999998</v>
       </c>
@@ -31221,7 +33726,7 @@
       <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="23">
         <v>0.10416666666666667</v>
       </c>
       <c r="C23">
@@ -31238,7 +33743,7 @@
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24">
         <v>445.99</v>
       </c>
@@ -31253,7 +33758,7 @@
       <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25">
         <v>448.81200000000001</v>
       </c>
@@ -31268,7 +33773,7 @@
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="24"/>
       <c r="C26">
         <v>451.66</v>
       </c>
@@ -31283,7 +33788,7 @@
       <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="24"/>
       <c r="C27">
         <v>449.61200000000002</v>
       </c>
@@ -31298,7 +33803,7 @@
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="23">
         <v>0.125</v>
       </c>
       <c r="C28">
@@ -31315,7 +33820,7 @@
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29">
         <v>526.95799999999997</v>
       </c>
@@ -31330,7 +33835,7 @@
       <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30">
         <v>530.51599999999996</v>
       </c>
@@ -31345,7 +33850,7 @@
       <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31">
         <v>533.67100000000005</v>
       </c>
@@ -31360,7 +33865,7 @@
       <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32">
         <v>531.27800000000002</v>
       </c>
@@ -31375,7 +33880,7 @@
       <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="23">
         <v>0.14583333333333334</v>
       </c>
       <c r="C33">
@@ -31392,7 +33897,7 @@
       <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="C34">
         <v>607.93399999999997</v>
       </c>
@@ -31407,7 +33912,7 @@
       <c r="A35" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="24"/>
       <c r="C35">
         <v>612.22500000000002</v>
       </c>
@@ -31422,7 +33927,7 @@
       <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="C36">
         <v>615.68100000000004</v>
       </c>
@@ -31437,7 +33942,7 @@
       <c r="A37" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="C37">
         <v>612.95399999999995</v>
       </c>
@@ -31452,7 +33957,7 @@
       <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="23">
         <v>0.16666666666666666</v>
       </c>
       <c r="C38">
@@ -31469,7 +33974,7 @@
       <c r="A39" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="23"/>
+      <c r="B39" s="24"/>
       <c r="C39">
         <v>688.91</v>
       </c>
@@ -31484,7 +33989,7 @@
       <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="23"/>
+      <c r="B40" s="24"/>
       <c r="C40">
         <v>693.93200000000002</v>
       </c>
@@ -31499,7 +34004,7 @@
       <c r="A41" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41">
         <v>697.69799999999998</v>
       </c>
@@ -31514,7 +34019,7 @@
       <c r="A42" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42">
         <v>694.625</v>
       </c>
@@ -31529,7 +34034,7 @@
       <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="23">
         <v>0.1875</v>
       </c>
       <c r="C43">
@@ -31546,7 +34051,7 @@
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
       <c r="C44">
         <v>769.88599999999997</v>
       </c>
@@ -31561,7 +34066,7 @@
       <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
       <c r="C45">
         <v>775.64200000000005</v>
       </c>
@@ -31576,7 +34081,7 @@
       <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
       <c r="C46">
         <v>779.70600000000002</v>
       </c>
@@ -31591,7 +34096,7 @@
       <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="23"/>
+      <c r="B47" s="24"/>
       <c r="C47">
         <v>776.29600000000005</v>
       </c>
@@ -31606,7 +34111,7 @@
       <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="23">
         <v>0.20833333333333334</v>
       </c>
       <c r="C48">
@@ -31623,7 +34128,7 @@
       <c r="A49" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="24"/>
       <c r="C49">
         <v>850.86300000000006</v>
       </c>
@@ -31638,7 +34143,7 @@
       <c r="A50" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="24"/>
       <c r="C50">
         <v>857.34500000000003</v>
       </c>
@@ -31653,7 +34158,7 @@
       <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="24"/>
       <c r="C51">
         <v>861.71799999999996</v>
       </c>
@@ -31668,7 +34173,7 @@
       <c r="A52" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="24"/>
       <c r="C52">
         <v>857.97</v>
       </c>
@@ -31683,7 +34188,7 @@
       <c r="A53" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="22">
         <v>0.22916666666666666</v>
       </c>
       <c r="C53">
@@ -31700,7 +34205,7 @@
       <c r="A54" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="21"/>
+      <c r="B54" s="22"/>
       <c r="C54">
         <v>931.83900000000006</v>
       </c>
@@ -31715,7 +34220,7 @@
       <c r="A55" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55">
         <v>939.05200000000002</v>
       </c>
@@ -31730,7 +34235,7 @@
       <c r="A56" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56">
         <v>943.73199999999997</v>
       </c>
@@ -31745,7 +34250,7 @@
       <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="21"/>
+      <c r="B57" s="22"/>
       <c r="C57">
         <v>939.63699999999994</v>
       </c>
@@ -31760,7 +34265,7 @@
       <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="22">
         <v>0.25</v>
       </c>
       <c r="C58">
@@ -31777,7 +34282,7 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59">
         <v>1012.809</v>
       </c>
@@ -31792,7 +34297,7 @@
       <c r="A60" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="21"/>
+      <c r="B60" s="22"/>
       <c r="C60">
         <v>1020.7619999999999</v>
       </c>
@@ -31807,7 +34312,7 @@
       <c r="A61" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="21"/>
+      <c r="B61" s="22"/>
       <c r="C61">
         <v>1025.739</v>
       </c>
@@ -31822,7 +34327,7 @@
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62">
         <v>1021.3049999999999</v>
       </c>
@@ -31872,10 +34377,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DDFA14-2BA6-7147-8061-27485626EA68}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31908,1255 +34413,1278 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>A2*10</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>3.9849999999999999</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3.1030000000000002</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>3.6360000000000001</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>4.5229999999999997</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.3810000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B16" si="0">A3*10</f>
-        <v>20</v>
+        <f>A3*10</f>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6.2335000000000003</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="D3">
-        <v>4.0380000000000003</v>
+        <v>3.1030000000000002</v>
       </c>
       <c r="E3">
-        <v>4.8</v>
+        <v>3.6360000000000001</v>
       </c>
       <c r="F3">
-        <v>5.734</v>
+        <v>4.5229999999999997</v>
       </c>
       <c r="G3">
-        <v>6.6444999999999999</v>
+        <v>5.3810000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" ref="B4:B17" si="0">A4*10</f>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>8.4990000000000006</v>
+        <v>6.2335000000000003</v>
       </c>
       <c r="D4">
-        <v>4.6176666666666604</v>
+        <v>4.0380000000000003</v>
       </c>
       <c r="E4">
-        <v>5.9359999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="F4">
-        <v>6.7026666666666603</v>
+        <v>5.734</v>
       </c>
       <c r="G4">
-        <v>7.3443333333333296</v>
+        <v>6.6444999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>9.6325000000000003</v>
+        <v>8.4990000000000006</v>
       </c>
       <c r="D5">
-        <v>5.2712500000000002</v>
+        <v>4.6176666666666604</v>
       </c>
       <c r="E5">
-        <v>6.6384999999999996</v>
+        <v>5.9359999999999999</v>
       </c>
       <c r="F5">
-        <v>7.9775</v>
+        <v>6.7026666666666603</v>
       </c>
       <c r="G5">
-        <v>9.0839999999999996</v>
+        <v>7.3443333333333296</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>11.4274</v>
+        <v>9.6325000000000003</v>
       </c>
       <c r="D6">
-        <v>5.6352000000000002</v>
+        <v>5.2712500000000002</v>
       </c>
       <c r="E6">
-        <v>7.6006</v>
+        <v>6.6384999999999996</v>
       </c>
       <c r="F6">
-        <v>8.5963999999999992</v>
+        <v>7.9775</v>
       </c>
       <c r="G6">
-        <v>9.9358000000000004</v>
+        <v>9.0839999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>12.8128333333333</v>
+        <v>11.4274</v>
       </c>
       <c r="D7">
-        <v>6.1038333333333297</v>
+        <v>5.6352000000000002</v>
       </c>
       <c r="E7">
-        <v>8.1661666666666601</v>
+        <v>7.6006</v>
       </c>
       <c r="F7">
-        <v>9.5869999999999997</v>
+        <v>8.5963999999999992</v>
       </c>
       <c r="G7">
-        <v>10.6815</v>
+        <v>9.9358000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>13.7211428571428</v>
+        <v>12.8128333333333</v>
       </c>
       <c r="D8">
-        <v>6.5092857142857099</v>
+        <v>6.1038333333333297</v>
       </c>
       <c r="E8">
-        <v>8.7287142857142808</v>
+        <v>8.1661666666666601</v>
       </c>
       <c r="F8">
-        <v>10.7021428571428</v>
+        <v>9.5869999999999997</v>
       </c>
       <c r="G8">
-        <v>11.4091428571428</v>
+        <v>10.6815</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>14.570125000000001</v>
+        <v>13.7211428571428</v>
       </c>
       <c r="D9">
-        <v>6.8722500000000002</v>
+        <v>6.5092857142857099</v>
       </c>
       <c r="E9">
-        <v>9.1913750000000007</v>
+        <v>8.7287142857142808</v>
       </c>
       <c r="F9">
-        <v>11.336124999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>13.126749999999999</v>
+        <v>10.7021428571428</v>
+      </c>
+      <c r="G9">
+        <v>11.4091428571428</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>15.610777777777701</v>
+        <v>14.570125000000001</v>
       </c>
       <c r="D10">
-        <v>7.1546666666666603</v>
+        <v>6.8722500000000002</v>
       </c>
       <c r="E10">
-        <v>9.8155555555555498</v>
+        <v>9.1913750000000007</v>
       </c>
       <c r="F10">
-        <v>11.892777777777701</v>
-      </c>
-      <c r="G10">
-        <v>13.833555555555501</v>
+        <v>11.336124999999999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>13.126749999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C11">
-        <v>16.940799999999999</v>
+        <v>15.610777777777701</v>
       </c>
       <c r="D11">
-        <v>5.4885000000000002</v>
+        <v>7.1546666666666603</v>
       </c>
       <c r="E11">
-        <v>10.4224</v>
+        <v>9.8155555555555498</v>
       </c>
       <c r="F11">
-        <v>12.39</v>
+        <v>11.892777777777701</v>
       </c>
       <c r="G11">
-        <v>14.4902</v>
+        <v>13.833555555555501</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>17.979636363636299</v>
+        <v>16.940799999999999</v>
       </c>
       <c r="D12">
-        <v>7.6371818181818103</v>
+        <v>5.4885000000000002</v>
       </c>
       <c r="E12">
-        <v>10.8921818181818</v>
+        <v>10.4224</v>
       </c>
       <c r="F12">
-        <v>13.0714545454545</v>
+        <v>12.39</v>
       </c>
       <c r="G12">
-        <v>15.154454545454501</v>
+        <v>14.4902</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>18.946916666666599</v>
+        <v>17.979636363636299</v>
       </c>
       <c r="D13">
-        <v>7.8845833333333299</v>
+        <v>7.6371818181818103</v>
       </c>
       <c r="E13">
-        <v>11.329666666666601</v>
+        <v>10.8921818181818</v>
       </c>
       <c r="F13">
-        <v>13.778083333333299</v>
+        <v>13.0714545454545</v>
       </c>
       <c r="G13">
-        <v>15.667249999999999</v>
+        <v>15.154454545454501</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C14">
-        <v>19.573384615384601</v>
+        <v>18.946916666666599</v>
       </c>
       <c r="D14">
-        <v>6.9859999999999998</v>
+        <v>7.8845833333333299</v>
       </c>
       <c r="E14">
-        <v>11.6768461538461</v>
+        <v>11.329666666666601</v>
       </c>
       <c r="F14">
-        <v>14.5083846153846</v>
+        <v>13.778083333333299</v>
       </c>
       <c r="G14">
-        <v>16.258076923076899</v>
+        <v>15.667249999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C15">
-        <v>20.189285714285699</v>
+        <v>19.573384615384601</v>
       </c>
       <c r="D15">
-        <v>8.4790714285714195</v>
+        <v>6.9859999999999998</v>
       </c>
       <c r="E15">
-        <v>12.028857142857101</v>
+        <v>11.6768461538461</v>
       </c>
       <c r="F15">
-        <v>15.105071428571399</v>
+        <v>14.5083846153846</v>
       </c>
       <c r="G15">
-        <v>17.012</v>
+        <v>16.258076923076899</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C16">
-        <v>20.934933333333301</v>
+        <v>20.189285714285699</v>
       </c>
       <c r="D16">
-        <v>8.7126000000000001</v>
+        <v>8.4790714285714195</v>
       </c>
       <c r="E16">
-        <v>12.4547333333333</v>
+        <v>12.028857142857101</v>
       </c>
       <c r="F16">
-        <v>15.6692</v>
+        <v>15.105071428571399</v>
       </c>
       <c r="G16">
-        <v>17.8991333333333</v>
+        <v>17.012</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <f>A17*10</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="C17">
-        <v>3.9449999999999998</v>
+        <v>20.934933333333301</v>
       </c>
       <c r="D17">
-        <v>3.0990000000000002</v>
+        <v>8.7126000000000001</v>
       </c>
       <c r="E17">
-        <v>3.6549999999999998</v>
+        <v>12.4547333333333</v>
       </c>
       <c r="F17">
-        <v>4.4509999999999996</v>
+        <v>15.6692</v>
       </c>
       <c r="G17">
-        <v>5.3949999999999996</v>
+        <v>17.8991333333333</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B31" si="1">A18*10</f>
-        <v>20</v>
+        <f>A18*10</f>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>6.2205000000000004</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="D18">
-        <v>4.0640000000000001</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="E18">
-        <v>4.8220000000000001</v>
+        <v>3.6549999999999998</v>
       </c>
       <c r="F18">
-        <v>5.7709999999999999</v>
+        <v>4.4509999999999996</v>
       </c>
       <c r="G18">
-        <v>6.6825000000000001</v>
+        <v>5.3949999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" ref="B19:B32" si="1">A19*10</f>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>8.4619999999999997</v>
+        <v>6.2205000000000004</v>
       </c>
       <c r="D19">
-        <v>4.6253333333333302</v>
+        <v>4.0640000000000001</v>
       </c>
       <c r="E19">
-        <v>5.9256666666666602</v>
+        <v>4.8220000000000001</v>
       </c>
       <c r="F19">
-        <v>6.7703333333333298</v>
+        <v>5.7709999999999999</v>
       </c>
       <c r="G19">
-        <v>7.3230000000000004</v>
+        <v>6.6825000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>9.74</v>
+        <v>8.4619999999999997</v>
       </c>
       <c r="D20">
-        <v>5.2977499999999997</v>
+        <v>4.6253333333333302</v>
       </c>
       <c r="E20">
-        <v>6.5594999999999999</v>
+        <v>5.9256666666666602</v>
       </c>
       <c r="F20">
-        <v>7.8529999999999998</v>
+        <v>6.7703333333333298</v>
       </c>
       <c r="G20">
-        <v>8.9612499999999997</v>
+        <v>7.3230000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>11.2926</v>
+        <v>9.74</v>
       </c>
       <c r="D21">
-        <v>5.6294000000000004</v>
+        <v>5.2977499999999997</v>
       </c>
       <c r="E21">
-        <v>7.5968</v>
+        <v>6.5594999999999999</v>
       </c>
       <c r="F21">
-        <v>8.5603999999999996</v>
+        <v>7.8529999999999998</v>
       </c>
       <c r="G21">
-        <v>9.9649999999999999</v>
+        <v>8.9612499999999997</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>12.683999999999999</v>
+        <v>11.2926</v>
       </c>
       <c r="D22">
-        <v>6.0833333333333304</v>
+        <v>5.6294000000000004</v>
       </c>
       <c r="E22">
-        <v>8.3071666666666601</v>
+        <v>7.5968</v>
       </c>
       <c r="F22">
-        <v>9.6771666666666594</v>
+        <v>8.5603999999999996</v>
       </c>
       <c r="G22">
-        <v>10.6231666666666</v>
+        <v>9.9649999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <v>13.698285714285699</v>
+        <v>12.683999999999999</v>
+      </c>
+      <c r="D23">
+        <v>6.0833333333333304</v>
       </c>
       <c r="E23">
-        <v>8.6947142857142801</v>
+        <v>8.3071666666666601</v>
       </c>
       <c r="F23">
-        <v>10.497</v>
+        <v>9.6771666666666594</v>
       </c>
       <c r="G23">
-        <v>11.446999999999999</v>
+        <v>10.6231666666666</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>14.631125000000001</v>
-      </c>
-      <c r="D24">
-        <v>6.8654999999999999</v>
+        <v>13.698285714285699</v>
       </c>
       <c r="E24">
-        <v>9.2053750000000001</v>
+        <v>8.6947142857142801</v>
       </c>
       <c r="F24">
-        <v>11.2865</v>
-      </c>
-      <c r="G24" s="1">
-        <v>12.945</v>
+        <v>10.497</v>
+      </c>
+      <c r="G24">
+        <v>11.446999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C25">
-        <v>15.646000000000001</v>
+        <v>14.631125000000001</v>
       </c>
       <c r="D25">
-        <v>7.14</v>
+        <v>6.8654999999999999</v>
       </c>
       <c r="E25">
-        <v>9.8334444444444404</v>
+        <v>9.2053750000000001</v>
       </c>
       <c r="F25">
-        <v>11.9475555555555</v>
-      </c>
-      <c r="G25">
-        <v>13.868</v>
+        <v>11.2865</v>
+      </c>
+      <c r="G25" s="1">
+        <v>12.945</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C26">
-        <v>16.8748</v>
+        <v>15.646000000000001</v>
       </c>
       <c r="D26">
-        <v>7.3856000000000002</v>
+        <v>7.14</v>
       </c>
       <c r="E26">
-        <v>10.4152</v>
+        <v>9.8334444444444404</v>
       </c>
       <c r="F26">
-        <v>12.4268</v>
+        <v>11.9475555555555</v>
       </c>
       <c r="G26">
-        <v>14.4655</v>
+        <v>13.868</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C27">
-        <v>18.059090909090902</v>
+        <v>16.8748</v>
       </c>
       <c r="D27">
-        <v>7.6295454545454504</v>
+        <v>7.3856000000000002</v>
       </c>
       <c r="E27">
-        <v>10.9325454545454</v>
+        <v>10.4152</v>
       </c>
       <c r="F27">
-        <v>13.0780909090909</v>
+        <v>12.4268</v>
       </c>
       <c r="G27">
-        <v>15.1498181818181</v>
+        <v>14.4655</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C28">
-        <v>19.0571666666666</v>
+        <v>18.059090909090902</v>
       </c>
       <c r="D28">
-        <v>7.968</v>
+        <v>7.6295454545454504</v>
       </c>
       <c r="E28">
-        <v>11.3348333333333</v>
+        <v>10.9325454545454</v>
       </c>
       <c r="F28">
-        <v>13.9288333333333</v>
+        <v>13.0780909090909</v>
       </c>
       <c r="G28">
-        <v>15.7535833333333</v>
+        <v>15.1498181818181</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C29">
-        <v>19.567923076923002</v>
+        <v>19.0571666666666</v>
       </c>
       <c r="D29">
-        <v>8.1746923076923004</v>
+        <v>7.968</v>
       </c>
       <c r="E29">
-        <v>11.6190769230769</v>
+        <v>11.3348333333333</v>
       </c>
       <c r="F29">
-        <v>14.427846153846099</v>
+        <v>13.9288333333333</v>
       </c>
       <c r="G29">
-        <v>16.379692307692299</v>
+        <v>15.7535833333333</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C30">
-        <v>20.1394285714285</v>
+        <v>19.567923076923002</v>
       </c>
       <c r="D30">
-        <v>8.4613571428571408</v>
+        <v>8.1746923076923004</v>
       </c>
       <c r="E30">
-        <v>12.1277857142857</v>
+        <v>11.6190769230769</v>
       </c>
       <c r="F30">
-        <v>15.1064285714285</v>
+        <v>14.427846153846099</v>
       </c>
       <c r="G30">
-        <v>17.128285714285699</v>
+        <v>16.379692307692299</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C31">
-        <v>20.9472666666666</v>
+        <v>20.1394285714285</v>
       </c>
       <c r="D31">
-        <v>8.6449999999999996</v>
+        <v>8.4613571428571408</v>
       </c>
       <c r="E31">
-        <v>12.4441333333333</v>
+        <v>12.1277857142857</v>
       </c>
       <c r="F31">
-        <v>15.6858666666666</v>
+        <v>15.1064285714285</v>
       </c>
       <c r="G31">
-        <v>17.971466666666601</v>
+        <v>17.128285714285699</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <f>A32*10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="C32">
-        <v>3.9089999999999998</v>
+        <v>20.9472666666666</v>
       </c>
       <c r="D32">
-        <v>3.081</v>
+        <v>8.6449999999999996</v>
       </c>
       <c r="E32">
-        <v>3.6749999999999998</v>
+        <v>12.4441333333333</v>
       </c>
       <c r="F32">
-        <v>4.51</v>
+        <v>15.6858666666666</v>
       </c>
       <c r="G32">
-        <v>5.407</v>
+        <v>17.971466666666601</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B46" si="2">A33*10</f>
-        <v>20</v>
+        <f>A33*10</f>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>6.1630000000000003</v>
+        <v>3.9089999999999998</v>
       </c>
       <c r="D33">
-        <v>4.0415000000000001</v>
+        <v>3.081</v>
       </c>
       <c r="E33">
-        <v>4.7865000000000002</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="F33">
-        <v>5.7060000000000004</v>
+        <v>4.51</v>
       </c>
       <c r="G33">
-        <v>6.6680000000000001</v>
+        <v>5.407</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" ref="B34:B47" si="2">A34*10</f>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>8.3936666666666593</v>
+        <v>6.1630000000000003</v>
       </c>
       <c r="D34">
-        <v>4.6050000000000004</v>
+        <v>4.0415000000000001</v>
       </c>
       <c r="E34">
-        <v>6.0166666666666604</v>
+        <v>4.7865000000000002</v>
       </c>
       <c r="F34">
-        <v>6.8129999999999997</v>
+        <v>5.7060000000000004</v>
       </c>
       <c r="G34">
-        <v>7.3436666666666603</v>
+        <v>6.6680000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>9.73</v>
+        <v>8.3936666666666593</v>
       </c>
       <c r="D35">
-        <v>5.3220000000000001</v>
+        <v>4.6050000000000004</v>
       </c>
       <c r="E35">
-        <v>6.6185</v>
+        <v>6.0166666666666604</v>
       </c>
       <c r="F35">
-        <v>8.0762499999999999</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="G35">
-        <v>9.1425000000000001</v>
+        <v>7.3436666666666603</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>11.3764</v>
+        <v>9.73</v>
       </c>
       <c r="D36">
-        <v>5.7054</v>
+        <v>5.3220000000000001</v>
       </c>
       <c r="E36">
-        <v>7.5696000000000003</v>
+        <v>6.6185</v>
       </c>
       <c r="F36">
-        <v>8.5085999999999995</v>
+        <v>8.0762499999999999</v>
       </c>
       <c r="G36">
-        <v>10.005599999999999</v>
+        <v>9.1425000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C37">
-        <v>12.8206666666666</v>
+        <v>11.3764</v>
       </c>
       <c r="D37">
-        <v>6.0830000000000002</v>
+        <v>5.7054</v>
       </c>
       <c r="E37">
-        <v>8.2799999999999994</v>
+        <v>7.5696000000000003</v>
       </c>
       <c r="F37">
-        <v>9.7379999999999995</v>
+        <v>8.5085999999999995</v>
       </c>
       <c r="G37">
-        <v>10.5541666666666</v>
+        <v>10.005599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C38">
-        <v>13.6557142857142</v>
+        <v>12.8206666666666</v>
       </c>
       <c r="D38">
-        <v>6.5497142857142796</v>
+        <v>6.0830000000000002</v>
       </c>
       <c r="E38">
-        <v>8.6818571428571403</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="F38">
-        <v>10.600142857142799</v>
+        <v>9.7379999999999995</v>
       </c>
       <c r="G38">
-        <v>11.4897142857142</v>
+        <v>10.5541666666666</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C39">
-        <v>14.4885</v>
+        <v>13.6557142857142</v>
       </c>
       <c r="D39">
-        <v>6.9027500000000002</v>
+        <v>6.5497142857142796</v>
       </c>
       <c r="E39">
-        <v>9.2360000000000007</v>
+        <v>8.6818571428571403</v>
       </c>
       <c r="F39">
-        <v>11.27375</v>
-      </c>
-      <c r="G39" s="1">
-        <v>13.005125</v>
+        <v>10.600142857142799</v>
+      </c>
+      <c r="G39">
+        <v>11.4897142857142</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C40">
-        <v>15.765333333333301</v>
+        <v>14.4885</v>
       </c>
       <c r="D40">
-        <v>6.3018888888888798</v>
+        <v>6.9027500000000002</v>
       </c>
       <c r="E40">
-        <v>9.8213333333333299</v>
+        <v>9.2360000000000007</v>
       </c>
       <c r="F40">
-        <v>11.907111111111099</v>
-      </c>
-      <c r="G40">
-        <v>13.8651111111111</v>
+        <v>11.27375</v>
+      </c>
+      <c r="G40" s="1">
+        <v>13.005125</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C41">
-        <v>16.877099999999999</v>
+        <v>15.765333333333301</v>
       </c>
       <c r="D41">
-        <v>7.4260000000000002</v>
+        <v>6.3018888888888798</v>
       </c>
       <c r="E41">
-        <v>10.3842</v>
+        <v>9.8213333333333299</v>
       </c>
       <c r="F41">
-        <v>12.4377</v>
+        <v>11.907111111111099</v>
       </c>
       <c r="G41">
-        <v>14.5283</v>
+        <v>13.8651111111111</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C42">
-        <v>18.002636363636299</v>
+        <v>16.877099999999999</v>
       </c>
       <c r="D42">
-        <v>7.6139090909090896</v>
+        <v>7.4260000000000002</v>
       </c>
       <c r="E42">
-        <v>10.9634545454545</v>
+        <v>10.3842</v>
       </c>
       <c r="F42">
-        <v>13.0453636363636</v>
+        <v>12.4377</v>
       </c>
       <c r="G42">
-        <v>15.086</v>
+        <v>14.5283</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C43">
-        <v>18.895583333333299</v>
+        <v>18.002636363636299</v>
       </c>
       <c r="D43">
-        <v>7.88225</v>
+        <v>7.6139090909090896</v>
       </c>
       <c r="E43">
-        <v>11.257999999999999</v>
+        <v>10.9634545454545</v>
       </c>
       <c r="F43">
-        <v>13.8689166666666</v>
+        <v>13.0453636363636</v>
       </c>
       <c r="G43">
-        <v>15.8128333333333</v>
+        <v>15.086</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C44">
-        <v>19.620076923076901</v>
+        <v>18.895583333333299</v>
       </c>
       <c r="D44">
-        <v>8.1416923076922991</v>
+        <v>7.88225</v>
       </c>
       <c r="E44">
-        <v>11.6842307692307</v>
+        <v>11.257999999999999</v>
       </c>
       <c r="F44">
-        <v>14.507307692307601</v>
+        <v>13.8689166666666</v>
       </c>
       <c r="G44">
-        <v>16.219000000000001</v>
+        <v>15.8128333333333</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C45">
-        <v>20.324285714285701</v>
+        <v>19.620076923076901</v>
       </c>
       <c r="D45">
-        <v>8.4535</v>
+        <v>8.1416923076922991</v>
       </c>
       <c r="E45">
-        <v>12.090714285714199</v>
+        <v>11.6842307692307</v>
       </c>
       <c r="F45">
-        <v>15.1179285714285</v>
+        <v>14.507307692307601</v>
       </c>
       <c r="G45">
-        <v>16.915571428571401</v>
+        <v>16.219000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C46">
-        <v>20.8547333333333</v>
+        <v>20.324285714285701</v>
       </c>
       <c r="D46">
-        <v>8.7390000000000008</v>
+        <v>8.4535</v>
       </c>
       <c r="E46">
-        <v>12.4075333333333</v>
+        <v>12.090714285714199</v>
       </c>
       <c r="F46">
-        <v>15.5947333333333</v>
+        <v>15.1179285714285</v>
       </c>
       <c r="G46">
-        <v>17.991800000000001</v>
+        <v>16.915571428571401</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <f>A47*10</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="C47">
+        <v>20.8547333333333</v>
       </c>
       <c r="D47">
-        <v>2.9055555555555501</v>
+        <v>8.7390000000000008</v>
+      </c>
+      <c r="E47">
+        <v>12.4075333333333</v>
+      </c>
+      <c r="F47">
+        <v>15.5947333333333</v>
+      </c>
+      <c r="G47">
+        <v>17.991800000000001</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48:B61" si="3">A48*10</f>
-        <v>20</v>
+        <f>A48*10</f>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>4.0155000000000003</v>
+        <v>2.9055555555555501</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <f t="shared" si="3"/>
-        <v>30</v>
+        <f t="shared" ref="B49:B62" si="3">A49*10</f>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>4.5750000000000002</v>
+        <v>4.0155000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>5.3247499999999999</v>
+        <v>4.5750000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D51">
-        <v>5.6680000000000001</v>
+        <v>5.3247499999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>6.09033333333333</v>
+        <v>5.6680000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D53">
-        <v>6.52457142857142</v>
+        <v>6.09033333333333</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D54">
-        <v>6.852125</v>
+        <v>6.52457142857142</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>7.1369999999999996</v>
+        <v>6.852125</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D56">
-        <v>7.3886000000000003</v>
+        <v>7.1369999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D57">
-        <v>7.59027272727272</v>
+        <v>7.3886000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D58">
-        <v>7.8834999999999997</v>
+        <v>7.59027272727272</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D59">
-        <v>8.2215384615384597</v>
+        <v>7.8834999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D60">
-        <v>8.4364285714285696</v>
+        <v>8.2215384615384597</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
         <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="D61">
+        <v>8.4364285714285696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>8.6921999999999997</v>
       </c>
     </row>
@@ -33170,8 +35698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61725E10-EEA2-154A-AD53-21D845C67DB2}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33414,10 +35942,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE116D22-F5F9-204B-8FD3-7687A6A79B1E}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33478,285 +36006,2602 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>4.1398847197000297</v>
+      </c>
+      <c r="C2">
+        <v>4.6561320150910204</v>
+      </c>
+      <c r="D2">
+        <v>4.8367615063409497</v>
+      </c>
+      <c r="E2">
+        <v>4.8896653850853502</v>
+      </c>
+      <c r="F2">
+        <v>4.9001789840854704</v>
+      </c>
+      <c r="G2">
+        <v>4.7259479211811604</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" s="24">
-        <v>7.9251701943329804</v>
-      </c>
-      <c r="K2" s="24">
-        <v>7.6436909797083699</v>
-      </c>
-      <c r="L2" s="24">
-        <v>6.9590863254723798</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
+      <c r="J2" s="19">
+        <v>8.3005643506346196</v>
+      </c>
+      <c r="K2" s="19">
+        <v>9.3011568917277891</v>
+      </c>
+      <c r="L2" s="19">
+        <v>9.7049160216911297</v>
+      </c>
+      <c r="M2" s="19">
+        <v>9.8266581581747996</v>
+      </c>
+      <c r="N2" s="19">
+        <v>9.8714894886163904</v>
+      </c>
+      <c r="O2" s="19">
+        <v>9.8734765328444691</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>6.9694404828230496</v>
+      </c>
+      <c r="C3">
+        <v>8.7501411423725699</v>
+      </c>
+      <c r="D3">
+        <v>9.3541965833240006</v>
+      </c>
+      <c r="E3">
+        <v>9.6300654874990297</v>
+      </c>
+      <c r="F3">
+        <v>9.6500765396703994</v>
+      </c>
+      <c r="G3">
+        <v>9.0367683474734797</v>
+      </c>
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3" s="24">
-        <v>12.254172716191199</v>
-      </c>
-      <c r="K3" s="24">
-        <v>13.5313015239942</v>
-      </c>
-      <c r="L3" s="24">
-        <v>11.4972558664213</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="J3" s="19">
+        <v>14.228519805628601</v>
+      </c>
+      <c r="K3" s="19">
+        <v>17.5825291045619</v>
+      </c>
+      <c r="L3" s="19">
+        <v>18.965107811016999</v>
+      </c>
+      <c r="M3" s="19">
+        <v>19.494908781087101</v>
+      </c>
+      <c r="N3" s="19">
+        <v>19.610030664911701</v>
+      </c>
+      <c r="O3" s="19">
+        <v>19.402098807525601</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>10.2554429311412</v>
+      </c>
+      <c r="C4">
+        <v>15.435088736784801</v>
+      </c>
+      <c r="D4">
+        <v>17.774940184805999</v>
+      </c>
+      <c r="E4">
+        <v>18.1135514990203</v>
+      </c>
+      <c r="F4">
+        <v>18.274696080978199</v>
+      </c>
+      <c r="G4">
+        <v>16.867280981171699</v>
+      </c>
       <c r="I4">
         <v>4</v>
       </c>
-      <c r="J4" s="24">
-        <v>14.980161957964</v>
-      </c>
-      <c r="K4" s="24">
-        <v>14.811830924293099</v>
-      </c>
-      <c r="L4" s="24">
-        <v>12.8029811382343</v>
-      </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="J4" s="19">
+        <v>21.267828053207701</v>
+      </c>
+      <c r="K4" s="19">
+        <v>31.1490832697691</v>
+      </c>
+      <c r="L4" s="19">
+        <v>36.2503154883576</v>
+      </c>
+      <c r="M4" s="19">
+        <v>37.760418352575599</v>
+      </c>
+      <c r="N4" s="19">
+        <v>37.488426989264703</v>
+      </c>
+      <c r="O4" s="19">
+        <v>35.938240706888998</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>12.178298600453999</v>
+      </c>
+      <c r="C5">
+        <v>23.8469606560055</v>
+      </c>
+      <c r="D5">
+        <v>30.2072763393911</v>
+      </c>
+      <c r="E5">
+        <v>32.161928317504803</v>
+      </c>
+      <c r="F5">
+        <v>29.1418556517472</v>
+      </c>
+      <c r="G5">
+        <v>26.2305805147166</v>
+      </c>
       <c r="I5">
         <v>8</v>
       </c>
-      <c r="J5" s="24">
-        <v>14.4385738160681</v>
-      </c>
-      <c r="K5" s="24">
-        <v>16.854597777917</v>
-      </c>
-      <c r="L5" s="24">
-        <v>10.578499707570099</v>
-      </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="J5" s="19">
+        <v>25.893161066671201</v>
+      </c>
+      <c r="K5" s="19">
+        <v>49.183758609692603</v>
+      </c>
+      <c r="L5" s="19">
+        <v>58.226421311909696</v>
+      </c>
+      <c r="M5" s="19">
+        <v>57.328681047561503</v>
+      </c>
+      <c r="N5" s="19">
+        <v>48.712420528852199</v>
+      </c>
+      <c r="O5" s="19">
+        <v>46.630793504193299</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
         <v>16</v>
       </c>
+      <c r="B6">
+        <v>11.6794244365019</v>
+      </c>
+      <c r="C6">
+        <v>27.820652721817499</v>
+      </c>
+      <c r="D6">
+        <v>35.448035395244503</v>
+      </c>
+      <c r="E6">
+        <v>36.241851859587499</v>
+      </c>
+      <c r="F6">
+        <v>32.455320523717099</v>
+      </c>
+      <c r="G6">
+        <v>30.511156636829298</v>
+      </c>
       <c r="I6">
         <v>16</v>
       </c>
-      <c r="J6" s="24">
-        <v>13.6047935750394</v>
-      </c>
-      <c r="K6" s="24">
-        <v>13.565865153377</v>
-      </c>
-      <c r="L6" s="24">
-        <v>8.6909973242113292</v>
-      </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="J6" s="19">
+        <v>25.5999912106507</v>
+      </c>
+      <c r="K6" s="19">
+        <v>54.702728517867698</v>
+      </c>
+      <c r="L6" s="19">
+        <v>70.289602901570206</v>
+      </c>
+      <c r="M6" s="19">
+        <v>63.488037382045697</v>
+      </c>
+      <c r="N6" s="19">
+        <v>54.054992608007502</v>
+      </c>
+      <c r="O6" s="19">
+        <v>45.528401549396797</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
         <v>32</v>
       </c>
+      <c r="B7">
+        <v>8.8924036574277494</v>
+      </c>
+      <c r="C7">
+        <v>22.707904961080999</v>
+      </c>
+      <c r="D7">
+        <v>34.5452842225626</v>
+      </c>
+      <c r="E7">
+        <v>35.3160054462113</v>
+      </c>
+      <c r="F7">
+        <v>34.251622620795899</v>
+      </c>
+      <c r="G7">
+        <v>32.045325525240798</v>
+      </c>
       <c r="I7">
         <v>32</v>
       </c>
-      <c r="J7" s="24">
-        <v>12.629560371846599</v>
-      </c>
-      <c r="K7" s="24">
-        <v>15.379484336606</v>
-      </c>
-      <c r="L7" s="24">
-        <v>9.6234959336925101</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
+      <c r="J7" s="19">
+        <v>21.937612800881102</v>
+      </c>
+      <c r="K7" s="19">
+        <v>38.268599033026703</v>
+      </c>
+      <c r="L7" s="19">
+        <v>61.395539748249597</v>
+      </c>
+      <c r="M7" s="19">
+        <v>67.241954455658401</v>
+      </c>
+      <c r="N7" s="19">
+        <v>56.188932811878502</v>
+      </c>
+      <c r="O7" s="19">
+        <v>48.708232086455602</v>
+      </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4.11343064928929</v>
+      </c>
+      <c r="C10">
+        <v>4.64435433622989</v>
+      </c>
+      <c r="D10">
+        <v>4.8378317231298302</v>
+      </c>
+      <c r="E10">
+        <v>4.8968346864723102</v>
+      </c>
+      <c r="F10">
+        <v>4.9023387505889398</v>
+      </c>
+      <c r="G10">
+        <v>4.7414637520755898</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>8.3572520111576303</v>
+      </c>
+      <c r="K10" s="19">
+        <v>9.3369762679363895</v>
+      </c>
+      <c r="L10" s="19">
+        <v>9.7008031631632203</v>
+      </c>
+      <c r="M10" s="19">
+        <v>9.8247514757284495</v>
+      </c>
+      <c r="N10" s="19">
+        <v>9.8762546178701207</v>
+      </c>
+      <c r="O10" s="19">
+        <v>9.8463406539091007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>7.0232034084768697</v>
+      </c>
+      <c r="C11">
+        <v>8.6140570271618202</v>
+      </c>
+      <c r="D11">
+        <v>9.4278654568395801</v>
+      </c>
+      <c r="E11">
+        <v>9.6326956813095101</v>
+      </c>
+      <c r="F11">
+        <v>9.6148407564156404</v>
+      </c>
+      <c r="G11">
+        <v>9.0742798453721694</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>14.2185836560485</v>
+      </c>
+      <c r="K11" s="19">
+        <v>17.554410237143301</v>
+      </c>
+      <c r="L11" s="19">
+        <v>19.028927058095999</v>
+      </c>
+      <c r="M11" s="19">
+        <v>19.550497123449301</v>
+      </c>
+      <c r="N11" s="19">
+        <v>19.624485991154799</v>
+      </c>
+      <c r="O11" s="19">
+        <v>19.255997021463401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>10.3690748795087</v>
+      </c>
+      <c r="C12">
+        <v>15.530977735874099</v>
+      </c>
+      <c r="D12">
+        <v>17.861508675149601</v>
+      </c>
+      <c r="E12">
+        <v>18.493032006563599</v>
+      </c>
+      <c r="F12">
+        <v>18.338849918368901</v>
+      </c>
+      <c r="G12">
+        <v>17.070389224527201</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="19">
+        <v>21.296241458155201</v>
+      </c>
+      <c r="K12" s="19">
+        <v>31.177025981724299</v>
+      </c>
+      <c r="L12" s="19">
+        <v>36.293361543118003</v>
+      </c>
+      <c r="M12" s="19">
+        <v>37.131267037794302</v>
+      </c>
+      <c r="N12" s="19">
+        <v>36.505723819024098</v>
+      </c>
+      <c r="O12" s="19">
+        <v>35.288955140085001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>12.3070459976833</v>
+      </c>
+      <c r="C13">
+        <v>23.759354244687898</v>
+      </c>
+      <c r="D13">
+        <v>29.931350715032998</v>
+      </c>
+      <c r="E13">
+        <v>30.7647736320286</v>
+      </c>
+      <c r="F13">
+        <v>30.353318796236501</v>
+      </c>
+      <c r="G13">
+        <v>26.047686460490699</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="19">
+        <v>25.865095421276902</v>
+      </c>
+      <c r="K13" s="19">
+        <v>48.948721137194497</v>
+      </c>
+      <c r="L13" s="19">
+        <v>61.619522125396003</v>
+      </c>
+      <c r="M13" s="19">
+        <v>56.426807305565198</v>
+      </c>
+      <c r="N13" s="19">
+        <v>48.204739922593902</v>
+      </c>
+      <c r="O13" s="19">
+        <v>45.8421155255282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>11.7515238241924</v>
+      </c>
+      <c r="C14">
+        <v>27.133938015353301</v>
+      </c>
+      <c r="D14">
+        <v>37.1110732717639</v>
+      </c>
+      <c r="E14">
+        <v>35.347787871976998</v>
+      </c>
+      <c r="F14">
+        <v>34.808685236567101</v>
+      </c>
+      <c r="G14">
+        <v>30.535670100032799</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14" s="19">
+        <v>25.539147438976599</v>
+      </c>
+      <c r="K14" s="19">
+        <v>54.609974153472699</v>
+      </c>
+      <c r="L14" s="19">
+        <v>70.513396159571101</v>
+      </c>
+      <c r="M14" s="19">
+        <v>67.650125360888396</v>
+      </c>
+      <c r="N14" s="19">
+        <v>53.593001481783297</v>
+      </c>
+      <c r="O14" s="19">
+        <v>44.955323380723897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>8.9142852139011808</v>
+      </c>
+      <c r="C15">
+        <v>23.816906953168001</v>
+      </c>
+      <c r="D15">
+        <v>35.246881258605796</v>
+      </c>
+      <c r="E15">
+        <v>34.002418569238898</v>
+      </c>
+      <c r="F15">
+        <v>35.294679285415</v>
+      </c>
+      <c r="G15">
+        <v>31.414942670781201</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
+      </c>
+      <c r="J15" s="19">
+        <v>21.8658666321212</v>
+      </c>
+      <c r="K15" s="19">
+        <v>42.913607108285198</v>
+      </c>
+      <c r="L15" s="19">
+        <v>59.712017799385599</v>
+      </c>
+      <c r="M15" s="19">
+        <v>60.314627442149302</v>
+      </c>
+      <c r="N15" s="19">
+        <v>53.818500285358802</v>
+      </c>
+      <c r="O15" s="19">
+        <v>47.9797191755545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>4.1270022341962296</v>
+      </c>
+      <c r="C18">
+        <v>4.6569824329141802</v>
+      </c>
+      <c r="D18">
+        <v>4.8272117298655299</v>
+      </c>
+      <c r="E18">
+        <v>4.8878820441378998</v>
+      </c>
+      <c r="F18">
+        <v>4.8908598360946396</v>
+      </c>
+      <c r="G18">
+        <v>4.6984387439923996</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19">
+        <v>8.3594686887065102</v>
+      </c>
+      <c r="K18" s="19">
+        <v>9.32574771994895</v>
+      </c>
+      <c r="L18" s="19">
+        <v>9.6957311812804896</v>
+      </c>
+      <c r="M18" s="19">
+        <v>9.8311870324223403</v>
+      </c>
+      <c r="N18" s="19">
+        <v>9.8711537482571003</v>
+      </c>
+      <c r="O18" s="19">
+        <v>9.8551223704616202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>6.9322028629926704</v>
+      </c>
+      <c r="C19">
+        <v>8.7963450479472307</v>
+      </c>
+      <c r="D19">
+        <v>9.4083446828850299</v>
+      </c>
+      <c r="E19">
+        <v>9.5819053444469695</v>
+      </c>
+      <c r="F19">
+        <v>9.5653707556016307</v>
+      </c>
+      <c r="G19">
+        <v>8.9077725023036098</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="19">
+        <v>14.2605547273116</v>
+      </c>
+      <c r="K19" s="19">
+        <v>17.618056005342201</v>
+      </c>
+      <c r="L19" s="19">
+        <v>19.013471214762198</v>
+      </c>
+      <c r="M19" s="19">
+        <v>19.546440727397101</v>
+      </c>
+      <c r="N19" s="19">
+        <v>19.5943766740609</v>
+      </c>
+      <c r="O19" s="19">
+        <v>19.3038233540601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>10.3819882778765</v>
+      </c>
+      <c r="C20">
+        <v>15.501760097930299</v>
+      </c>
+      <c r="D20">
+        <v>17.776064506528002</v>
+      </c>
+      <c r="E20">
+        <v>18.1534050066277</v>
+      </c>
+      <c r="F20">
+        <v>18.000239750298999</v>
+      </c>
+      <c r="G20">
+        <v>16.738461749149199</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>21.113447373353001</v>
+      </c>
+      <c r="K20" s="19">
+        <v>31.268463908817601</v>
+      </c>
+      <c r="L20" s="19">
+        <v>36.1296079688234</v>
+      </c>
+      <c r="M20" s="19">
+        <v>37.196076918695603</v>
+      </c>
+      <c r="N20" s="19">
+        <v>36.6659127883823</v>
+      </c>
+      <c r="O20" s="19">
+        <v>36.055928499082498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>12.327497177683901</v>
+      </c>
+      <c r="C21">
+        <v>23.527786040647701</v>
+      </c>
+      <c r="D21">
+        <v>29.829528397972101</v>
+      </c>
+      <c r="E21">
+        <v>32.111040873138897</v>
+      </c>
+      <c r="F21">
+        <v>30.4457754025456</v>
+      </c>
+      <c r="G21">
+        <v>26.465941574792598</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" s="19">
+        <v>25.485839966220599</v>
+      </c>
+      <c r="K21" s="19">
+        <v>48.924427148009002</v>
+      </c>
+      <c r="L21" s="19">
+        <v>56.046662174757301</v>
+      </c>
+      <c r="M21" s="19">
+        <v>56.769038005272797</v>
+      </c>
+      <c r="N21" s="19">
+        <v>48.943058204968601</v>
+      </c>
+      <c r="O21" s="19">
+        <v>47.345608997846398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>11.7975787246429</v>
+      </c>
+      <c r="C22">
+        <v>25.939910857003099</v>
+      </c>
+      <c r="D22">
+        <v>37.848470919380198</v>
+      </c>
+      <c r="E22">
+        <v>36.471203658478998</v>
+      </c>
+      <c r="F22">
+        <v>33.040940159091399</v>
+      </c>
+      <c r="G22">
+        <v>31.272127567075401</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22" s="19">
+        <v>24.914940971275399</v>
+      </c>
+      <c r="K22" s="19">
+        <v>53.638212382865703</v>
+      </c>
+      <c r="L22" s="19">
+        <v>69.4014380613349</v>
+      </c>
+      <c r="M22" s="19">
+        <v>65.189685703494703</v>
+      </c>
+      <c r="N22" s="19">
+        <v>53.109527122056001</v>
+      </c>
+      <c r="O22" s="19">
+        <v>52.160214204076198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>9.2034785995045603</v>
+      </c>
+      <c r="C23">
+        <v>24.172741358214498</v>
+      </c>
+      <c r="D23">
+        <v>35.219416329282801</v>
+      </c>
+      <c r="E23">
+        <v>34.2188082814693</v>
+      </c>
+      <c r="F23">
+        <v>34.827753075644701</v>
+      </c>
+      <c r="G23">
+        <v>31.976754120088302</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
+      </c>
+      <c r="J23" s="19">
+        <v>21.731179470778802</v>
+      </c>
+      <c r="K23" s="19">
+        <v>41.557022979055901</v>
+      </c>
+      <c r="L23" s="19">
+        <v>62.055668105291602</v>
+      </c>
+      <c r="M23" s="19">
+        <v>64.371965183904805</v>
+      </c>
+      <c r="N23" s="19">
+        <v>55.5173012426105</v>
+      </c>
+      <c r="O23" s="19">
+        <v>48.996812098442298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f>(B2+B10+B18)/3</f>
+        <v>4.1267725343951831</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="0">(C2+C10+C18)/3</f>
+        <v>4.6524895947450302</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>4.8339349864454366</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>4.8914607052318537</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>4.8977925235896835</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>4.7219501390830496</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="19">
+        <f>(J2+J10+J18)/3</f>
+        <v>8.3390950168329194</v>
+      </c>
+      <c r="K26" s="19">
+        <f t="shared" ref="K26:O26" si="1">(K2+K10+K18)/3</f>
+        <v>9.3212936265377095</v>
+      </c>
+      <c r="L26" s="19">
+        <f t="shared" si="1"/>
+        <v>9.7004834553782793</v>
+      </c>
+      <c r="M26" s="19">
+        <f t="shared" si="1"/>
+        <v>9.8275322221085304</v>
+      </c>
+      <c r="N26" s="19">
+        <f t="shared" si="1"/>
+        <v>9.8729659515812038</v>
+      </c>
+      <c r="O26" s="19">
+        <f t="shared" si="1"/>
+        <v>9.8583131857383961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:G31" si="2">(B3+B11+B19)/3</f>
+        <v>6.9749489180975308</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>8.7201810724938742</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>9.3968022410162035</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>9.6148888377518364</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>9.6100960172292229</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>9.006273565049753</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" ref="J27:O31" si="3">(J3+J11+J19)/3</f>
+        <v>14.235886062996235</v>
+      </c>
+      <c r="K27" s="19">
+        <f t="shared" si="3"/>
+        <v>17.584998449015799</v>
+      </c>
+      <c r="L27" s="19">
+        <f t="shared" si="3"/>
+        <v>19.002502027958396</v>
+      </c>
+      <c r="M27" s="19">
+        <f t="shared" si="3"/>
+        <v>19.530615543977834</v>
+      </c>
+      <c r="N27" s="19">
+        <f t="shared" si="3"/>
+        <v>19.609631110042468</v>
+      </c>
+      <c r="O27" s="19">
+        <f t="shared" si="3"/>
+        <v>19.320639727683034</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>10.335502029508801</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>15.489275523529734</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>17.8041711221612</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>18.253329504070532</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>18.204595249882033</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>16.892043984949368</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="3"/>
+        <v>21.225838961571966</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" si="3"/>
+        <v>31.198191053437</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="3"/>
+        <v>36.224428333432996</v>
+      </c>
+      <c r="M28" s="19">
+        <f t="shared" si="3"/>
+        <v>37.36258743635517</v>
+      </c>
+      <c r="N28" s="19">
+        <f t="shared" si="3"/>
+        <v>36.886687865557029</v>
+      </c>
+      <c r="O28" s="19">
+        <f t="shared" si="3"/>
+        <v>35.761041448685496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>12.270947258607066</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>23.711366980447036</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>29.989385150798736</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>31.679247607557432</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>29.980316616843101</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>26.248069516666632</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" si="3"/>
+        <v>25.748032151389566</v>
+      </c>
+      <c r="K29" s="19">
+        <f t="shared" si="3"/>
+        <v>49.01896896496536</v>
+      </c>
+      <c r="L29" s="19">
+        <f t="shared" si="3"/>
+        <v>58.630868537354331</v>
+      </c>
+      <c r="M29" s="19">
+        <f t="shared" si="3"/>
+        <v>56.841508786133168</v>
+      </c>
+      <c r="N29" s="19">
+        <f t="shared" si="3"/>
+        <v>48.620072885471565</v>
+      </c>
+      <c r="O29" s="19">
+        <f t="shared" si="3"/>
+        <v>46.606172675855966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>11.742842328445732</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>26.964833864724636</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>36.8025265287962</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>36.020281130014496</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>33.434981973125197</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>30.772984767979167</v>
+      </c>
+      <c r="I30">
+        <v>16</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="3"/>
+        <v>25.351359873634234</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" si="3"/>
+        <v>54.316971684735364</v>
+      </c>
+      <c r="L30" s="19">
+        <f t="shared" si="3"/>
+        <v>70.068145707492064</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" si="3"/>
+        <v>65.442616148809591</v>
+      </c>
+      <c r="N30" s="19">
+        <f t="shared" si="3"/>
+        <v>53.585840403948936</v>
+      </c>
+      <c r="O30" s="19">
+        <f t="shared" si="3"/>
+        <v>47.547979711398966</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>9.0033891569444968</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>23.565851090821166</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>35.00386060348373</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>34.512410765639835</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>34.791351660618538</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>31.812340772036766</v>
+      </c>
+      <c r="I31">
+        <v>32</v>
+      </c>
+      <c r="J31" s="19">
+        <f t="shared" si="3"/>
+        <v>21.84488630126037</v>
+      </c>
+      <c r="K31" s="19">
+        <f t="shared" si="3"/>
+        <v>40.91307637345593</v>
+      </c>
+      <c r="L31" s="19">
+        <f t="shared" si="3"/>
+        <v>61.054408550975602</v>
+      </c>
+      <c r="M31" s="19">
+        <f t="shared" si="3"/>
+        <v>63.976182360570839</v>
+      </c>
+      <c r="N31" s="19">
+        <f t="shared" si="3"/>
+        <v>55.174911446615937</v>
+      </c>
+      <c r="O31" s="19">
+        <f t="shared" si="3"/>
+        <v>48.561587786817462</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C50" t="s">
         <v>20</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D50" t="s">
         <v>21</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E50" t="s">
         <v>22</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F50" t="s">
         <v>23</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G50" t="s">
         <v>24</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I50" t="s">
         <v>74</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J50" t="s">
         <v>19</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K50" t="s">
         <v>20</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L50" t="s">
         <v>21</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M50" t="s">
         <v>22</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N50" t="s">
         <v>23</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O50" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>4.3042289573661598</v>
+      </c>
+      <c r="C51">
+        <v>4.7870374585683502</v>
+      </c>
+      <c r="D51">
+        <v>4.9308781794742096</v>
+      </c>
+      <c r="E51">
+        <v>4.9801773899287403</v>
+      </c>
+      <c r="F51">
+        <v>4.9923130195279999</v>
+      </c>
+      <c r="G51">
+        <v>4.9956495994770798</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>8.7461772217782396</v>
+      </c>
+      <c r="K51" s="19">
+        <v>9.6337135484679095</v>
+      </c>
+      <c r="L51" s="19">
+        <v>9.9001521876818597</v>
+      </c>
+      <c r="M51" s="19">
+        <v>9.9733619878660402</v>
+      </c>
+      <c r="N51" s="19">
+        <v>9.9931462514625498</v>
+      </c>
+      <c r="O51" s="19">
+        <v>9.9975363976505704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>7.4384107818070202</v>
+      </c>
+      <c r="C52">
+        <v>9.1115780549212797</v>
+      </c>
+      <c r="D52">
+        <v>9.7136390371594103</v>
+      </c>
+      <c r="E52">
+        <v>9.8985572801913495</v>
+      </c>
+      <c r="F52">
+        <v>9.9683726327862399</v>
+      </c>
+      <c r="G52">
+        <v>9.9798748774774992</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>15.169856727208201</v>
+      </c>
+      <c r="K52" s="19">
+        <v>18.522996166698</v>
+      </c>
+      <c r="L52" s="19">
+        <v>19.602585576673601</v>
+      </c>
+      <c r="M52" s="19">
+        <v>19.892917091720101</v>
+      </c>
+      <c r="N52" s="19">
+        <v>19.962747791669599</v>
+      </c>
+      <c r="O52" s="19">
+        <v>19.986060414908401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>11.2269587169309</v>
+      </c>
+      <c r="C53">
+        <v>16.436732721397199</v>
+      </c>
+      <c r="D53">
+        <v>18.3686251260389</v>
+      </c>
+      <c r="E53">
+        <v>19.3996567858388</v>
+      </c>
+      <c r="F53">
+        <v>19.365797276004301</v>
+      </c>
+      <c r="G53">
+        <v>19.7455285840737</v>
+      </c>
+      <c r="I53">
+        <v>4</v>
+      </c>
+      <c r="J53">
+        <v>23.146881541403602</v>
+      </c>
+      <c r="K53" s="19">
+        <v>33.6673712449428</v>
+      </c>
+      <c r="L53" s="19">
+        <v>38.059094576702797</v>
+      </c>
+      <c r="M53" s="19">
+        <v>39.168701507192502</v>
+      </c>
+      <c r="N53" s="19">
+        <v>38.243294671839102</v>
+      </c>
+      <c r="O53" s="19">
+        <v>37.890204103530998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>13.398761683134399</v>
+      </c>
+      <c r="C54">
+        <v>26.021523598917302</v>
+      </c>
+      <c r="D54">
+        <v>33.209816152967001</v>
+      </c>
+      <c r="E54">
+        <v>33.199749473385999</v>
+      </c>
+      <c r="F54">
+        <v>33.966546898850403</v>
+      </c>
+      <c r="G54">
+        <v>34.666436309972198</v>
+      </c>
+      <c r="I54">
+        <v>8</v>
+      </c>
+      <c r="J54" s="19">
+        <v>28.3835694484874</v>
+      </c>
+      <c r="K54" s="19">
+        <v>54.854626074188197</v>
+      </c>
+      <c r="L54" s="19">
+        <v>67.270879836608998</v>
+      </c>
+      <c r="M54" s="19">
+        <v>58.500245195077703</v>
+      </c>
+      <c r="N54" s="19">
+        <v>49.863386428527697</v>
+      </c>
+      <c r="O54" s="19"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>12.933411283786199</v>
+      </c>
+      <c r="C55">
+        <v>31.639120336117799</v>
+      </c>
+      <c r="D55">
+        <v>39.213070609646302</v>
+      </c>
+      <c r="E55">
+        <v>39.633978689368703</v>
+      </c>
+      <c r="F55">
+        <v>37.702271219833797</v>
+      </c>
+      <c r="G55">
+        <v>44.481539395606397</v>
+      </c>
+      <c r="I55">
+        <v>16</v>
+      </c>
+      <c r="J55" s="19">
+        <v>27.739214157333699</v>
+      </c>
+      <c r="K55" s="19">
+        <v>60.949870363151398</v>
+      </c>
+      <c r="L55" s="19">
+        <v>81.789530965818798</v>
+      </c>
+      <c r="M55" s="19">
+        <v>66.968370663529299</v>
+      </c>
+      <c r="N55" s="19">
+        <v>54.660604503809601</v>
+      </c>
+      <c r="O55" s="19">
+        <v>60.053738773945199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>32</v>
+      </c>
+      <c r="B56">
+        <v>9.7863039104980096</v>
+      </c>
+      <c r="C56">
+        <v>27.161393601089198</v>
+      </c>
+      <c r="D56">
+        <v>36.812193373032798</v>
+      </c>
+      <c r="E56">
+        <v>38.807472482515202</v>
+      </c>
+      <c r="F56">
+        <v>38.110726367225801</v>
+      </c>
+      <c r="G56">
+        <v>44.035175137211503</v>
+      </c>
+      <c r="I56">
+        <v>32</v>
+      </c>
+      <c r="J56" s="19">
+        <v>24.6837095658863</v>
+      </c>
+      <c r="K56" s="19">
+        <v>45.3294080790359</v>
+      </c>
+      <c r="L56" s="19">
+        <v>72.969808086104194</v>
+      </c>
+      <c r="M56" s="19">
+        <v>70.079736907880303</v>
+      </c>
+      <c r="N56" s="19">
+        <v>57.790303177675</v>
+      </c>
+      <c r="O56" s="19">
+        <v>58.720124578788003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68141B65-4AC3-184D-B851-FD31148E4E98}">
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>A3*10</f>
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1.55477528089887</v>
+      </c>
+      <c r="D3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B17" si="0">A4*10</f>
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1.9360119047619</v>
+      </c>
+      <c r="D4">
+        <v>1.3996913580246899</v>
+      </c>
+      <c r="E4">
+        <v>1.1206395348837199</v>
+      </c>
+      <c r="F4">
+        <v>1.02729885057471</v>
+      </c>
+      <c r="G4">
+        <v>1.00598802395209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>2.3306451612903198</v>
+      </c>
+      <c r="D5">
+        <v>1.56989247311827</v>
+      </c>
+      <c r="E5">
+        <v>1.26149425287356</v>
+      </c>
+      <c r="F5">
+        <v>1.0799418604651101</v>
+      </c>
+      <c r="G5">
+        <v>1.04242424242424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>2.4527027027027</v>
+      </c>
+      <c r="D6">
+        <v>1.73224852071005</v>
+      </c>
+      <c r="E6">
+        <v>1.3338815789473599</v>
+      </c>
+      <c r="F6">
+        <v>1.19444444444444</v>
+      </c>
+      <c r="G6">
+        <v>1.0610795454545401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>2.64873417721518</v>
+      </c>
+      <c r="D7">
+        <v>1.8594771241829999</v>
+      </c>
+      <c r="E7">
+        <v>1.4739583333333299</v>
+      </c>
+      <c r="F7">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="G7">
+        <v>1.1365030674846599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>2.7321428571428501</v>
+      </c>
+      <c r="D8">
+        <v>1.94760479041916</v>
+      </c>
+      <c r="E8">
+        <v>1.5584415584415501</v>
+      </c>
+      <c r="F8">
+        <v>1.3265306122448901</v>
+      </c>
+      <c r="G8">
+        <v>1.18585526315789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>2.8317901234567899</v>
+      </c>
+      <c r="D9">
+        <v>2.0189873417721498</v>
+      </c>
+      <c r="E9">
+        <v>1.63425925925925</v>
+      </c>
+      <c r="F9">
+        <v>1.3795811518324601</v>
+      </c>
+      <c r="G9">
+        <v>1.2468152866241999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>2.8571428571428501</v>
+      </c>
+      <c r="D10">
+        <v>2.1040372670807401</v>
+      </c>
+      <c r="E10">
+        <v>1.6763803680981499</v>
+      </c>
+      <c r="F10">
+        <v>1.4308823529411701</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.28527607361963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>2.9242857142857099</v>
+      </c>
+      <c r="D11">
+        <v>2.2633333333333301</v>
+      </c>
+      <c r="E11">
+        <v>1.73941798941798</v>
+      </c>
+      <c r="F11">
+        <v>1.48484848484848</v>
+      </c>
+      <c r="G11">
+        <v>1.34666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>3.1465517241379302</v>
+      </c>
+      <c r="D12">
+        <v>2.203125</v>
+      </c>
+      <c r="E12">
+        <v>1.7678571428571399</v>
+      </c>
+      <c r="F12">
+        <v>1.4880952380952299</v>
+      </c>
+      <c r="G12">
+        <v>1.3836206896551699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>3.2308823529411699</v>
+      </c>
+      <c r="D13">
+        <v>2.2466666666666599</v>
+      </c>
+      <c r="E13">
+        <v>1.84738372093023</v>
+      </c>
+      <c r="F13">
+        <v>1.6013888888888801</v>
+      </c>
+      <c r="G13">
+        <v>1.3678010471204101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C14">
+        <v>3.2161290322580598</v>
+      </c>
+      <c r="D14">
+        <v>2.3670886075949298</v>
+      </c>
+      <c r="E14">
+        <v>1.8735795454545401</v>
+      </c>
+      <c r="F14">
+        <v>1.65189873417721</v>
+      </c>
+      <c r="G14">
+        <v>1.43711656441717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <v>3.3012048192771002</v>
+      </c>
+      <c r="D15">
+        <v>2.3361486486486398</v>
+      </c>
+      <c r="E15">
+        <v>1.91875</v>
+      </c>
+      <c r="F15">
+        <v>1.6482758620689599</v>
+      </c>
+      <c r="G15">
+        <v>1.4859550561797701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C16">
+        <v>3.3003144654088001</v>
+      </c>
+      <c r="D16">
+        <v>2.3410493827160401</v>
+      </c>
+      <c r="E16">
+        <v>1.88439306358381</v>
+      </c>
+      <c r="F16">
+        <v>1.63888888888888</v>
+      </c>
+      <c r="G16">
+        <v>1.54020100502512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C17">
+        <v>3.3886986301369801</v>
+      </c>
+      <c r="D17">
+        <v>2.4308510638297798</v>
+      </c>
+      <c r="E17">
+        <v>1.9342857142857099</v>
+      </c>
+      <c r="F17">
+        <v>1.7095808383233499</v>
+      </c>
+      <c r="G17">
+        <v>1.49548192771084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>A18*10</f>
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1.51875</v>
+      </c>
+      <c r="D18">
+        <v>1.11549707602339</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:B32" si="1">A19*10</f>
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1.9203910614525099</v>
+      </c>
+      <c r="D19">
+        <v>1.4078947368421</v>
+      </c>
+      <c r="E19">
+        <v>1.1162790697674401</v>
+      </c>
+      <c r="F19">
+        <v>1.0349162011173101</v>
+      </c>
+      <c r="G19">
+        <v>1.0028735632183901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>2.2821637426900501</v>
+      </c>
+      <c r="D20">
+        <v>1.5950292397660799</v>
+      </c>
+      <c r="E20">
+        <v>1.25920245398773</v>
+      </c>
+      <c r="F20">
+        <v>1.0855978260869501</v>
+      </c>
+      <c r="G20">
+        <v>1.03955696202531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>2.4602649006622501</v>
+      </c>
+      <c r="D21">
+        <v>1.6631736526946099</v>
+      </c>
+      <c r="E21">
+        <v>1.3556547619047601</v>
+      </c>
+      <c r="F21">
+        <v>1.1916167664670601</v>
+      </c>
+      <c r="G21">
+        <v>1.0610465116279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>2.6320754716981098</v>
+      </c>
+      <c r="D22">
+        <v>1.83516483516483</v>
+      </c>
+      <c r="E22">
+        <v>1.5030303030303001</v>
+      </c>
+      <c r="F22">
+        <v>1.28422619047619</v>
+      </c>
+      <c r="G22">
+        <v>1.1671686746987899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>2.79635761589403</v>
+      </c>
+      <c r="D23">
+        <v>1.9043209876543199</v>
+      </c>
+      <c r="E23">
+        <v>1.5467032967032901</v>
+      </c>
+      <c r="F23">
+        <v>1.38620689655172</v>
+      </c>
+      <c r="G23">
+        <v>1.2155172413793101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>2.7624223602484399</v>
+      </c>
+      <c r="D24">
+        <v>2.01433121019108</v>
+      </c>
+      <c r="E24">
+        <v>1.6330049261083699</v>
+      </c>
+      <c r="F24">
+        <v>1.35751295336787</v>
+      </c>
+      <c r="G24">
+        <v>1.2681818181818101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>2.9359375000000001</v>
+      </c>
+      <c r="D25">
+        <v>2.0656249999999998</v>
+      </c>
+      <c r="E25">
+        <v>1.68870967741935</v>
+      </c>
+      <c r="F25">
+        <v>1.44427710843373</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.2708333333333299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>3.0187861271676302</v>
+      </c>
+      <c r="D26">
+        <v>2.11350574712643</v>
+      </c>
+      <c r="E26">
+        <v>1.71875</v>
+      </c>
+      <c r="F26">
+        <v>1.4948453608247401</v>
+      </c>
+      <c r="G26">
+        <v>1.33766233766233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C27">
+        <v>3.0773809523809499</v>
+      </c>
+      <c r="D27">
+        <v>2.2102941176470501</v>
+      </c>
+      <c r="E27">
+        <v>1.77373417721518</v>
+      </c>
+      <c r="F27">
+        <v>1.5297619047619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C28">
+        <v>3.0542857142857098</v>
+      </c>
+      <c r="D28">
+        <v>2.2527322404371501</v>
+      </c>
+      <c r="E28">
+        <v>1.7680412371134</v>
+      </c>
+      <c r="F28">
+        <v>1.57369942196531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C29">
+        <v>3.2814569536423801</v>
+      </c>
+      <c r="D29">
+        <v>2.3125</v>
+      </c>
+      <c r="E29">
+        <v>1.8234463276836099</v>
+      </c>
+      <c r="F29">
+        <v>1.5833333333333299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C30">
+        <v>3.2244318181818099</v>
+      </c>
+      <c r="D30">
+        <v>2.4129746835443</v>
+      </c>
+      <c r="E30">
+        <v>1.89488636363636</v>
+      </c>
+      <c r="F30">
+        <v>1.6286982248520701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="C31">
+        <v>3.3074866310160398</v>
+      </c>
+      <c r="D31">
+        <v>2.3928571428571401</v>
+      </c>
+      <c r="E31">
+        <v>2.00322580645161</v>
+      </c>
+      <c r="F31">
+        <v>1.67628205128205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <v>3.3160377358490498</v>
+      </c>
+      <c r="D32">
+        <v>2.41290322580645</v>
+      </c>
+      <c r="E32">
+        <v>1.9851351351351301</v>
+      </c>
+      <c r="F32">
+        <v>1.6982142857142799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f>A33*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>8.0105318801585899</v>
-      </c>
-      <c r="K34" s="24">
-        <v>8.3428542588729808</v>
-      </c>
-      <c r="L34" s="24">
-        <v>8.9292180051796493</v>
-      </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B47" si="2">A34*10</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:7">
       <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>12.3670473583531</v>
-      </c>
-      <c r="K35" s="24">
-        <v>14.566320434723499</v>
-      </c>
-      <c r="L35" s="24">
-        <v>13.7137380701081</v>
-      </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="I36">
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <f>A48*10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:B62" si="3">A49*10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
         <v>4</v>
       </c>
-      <c r="J36">
-        <v>16.6948761656123</v>
-      </c>
-      <c r="K36" s="24">
-        <v>17.024939264140201</v>
-      </c>
-      <c r="L36" s="24">
-        <v>12.2103553413207</v>
-      </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37">
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
         <v>8</v>
       </c>
-      <c r="I37">
-        <v>8</v>
-      </c>
-      <c r="J37" s="24">
-        <v>15.533012961944101</v>
-      </c>
-      <c r="K37" s="24">
-        <v>17.6555311910091</v>
-      </c>
-      <c r="L37" s="24">
-        <v>10.649803664804701</v>
-      </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38">
-        <v>16</v>
-      </c>
-      <c r="I38">
-        <v>16</v>
-      </c>
-      <c r="J38" s="24">
-        <v>14.6860509456668</v>
-      </c>
-      <c r="K38" s="24">
-        <v>13.904454962722101</v>
-      </c>
-      <c r="L38" s="24">
-        <v>9.0133112606845192</v>
-      </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39">
-        <v>32</v>
-      </c>
-      <c r="I39">
-        <v>32</v>
-      </c>
-      <c r="J39" s="24">
-        <v>14.833903875112901</v>
-      </c>
-      <c r="K39" s="24">
-        <v>13.9978297184949</v>
-      </c>
-      <c r="L39" s="24">
-        <v>8.5246232046785995</v>
-      </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35562,31 +40407,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="2:17">
       <c r="C2" t="s">
@@ -35639,31 +40484,31 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
@@ -35774,31 +40619,31 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19" t="s">
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19" t="s">
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="2:17">
       <c r="B8" t="s">
@@ -35906,52 +40751,52 @@
       </c>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19" t="s">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" t="s">
@@ -36062,31 +40907,31 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19" t="s">
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19" t="s">
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" t="s">
@@ -36194,52 +41039,52 @@
       </c>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19" t="s">
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19" t="s">
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" t="s">
@@ -36344,31 +41189,31 @@
       <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19" t="s">
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19" t="s">
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="2:17">
       <c r="B26" t="s">
@@ -36471,27 +41316,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="O12:Q12"/>
@@ -36508,6 +41332,27 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/img_src/plots.xlsx
+++ b/img_src/plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom6311tom6311/Desktop/ntu-thesis/img_src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F8670-73E7-F843-99A4-9C9A49F1D0D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4961C0-96D6-414E-98B6-47F05B586979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" firstSheet="3" activeTab="14" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
+    <workbookView xWindow="9780" yWindow="-19620" windowWidth="28800" windowHeight="16220" firstSheet="3" activeTab="14" xr2:uid="{E697E83A-201A-3E47-BD96-3119B5C03217}"/>
   </bookViews>
   <sheets>
     <sheet name="exp3" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,30 @@
     <definedName name="_xlchart.v1.31" hidden="1">'exp6(II)'!$F$2:$F$62</definedName>
     <definedName name="_xlchart.v1.32" hidden="1">'exp6(II)'!$G$1</definedName>
     <definedName name="_xlchart.v1.33" hidden="1">'exp6(II)'!$G$2:$G$62</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'exp6(II)'!$B$2:$B$62</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'exp6(II)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'exp6(II)'!$C$2:$C$62</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'exp6(II)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'exp6(II)'!$D$2:$D$62</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'exp6(II)'!$E$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'exp7 (II)'!$E$3:$E$32</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'exp6(II)'!$E$2:$E$62</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'exp6(II)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'exp6(II)'!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'exp6(II)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'exp6(II)'!$G$2:$G$62</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'exp6(II)'!$B$2:$B$62</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'exp6(II)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'exp6(II)'!$C$2:$C$62</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'exp6(II)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'exp6(II)'!$D$2:$D$62</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'exp8'!$A$3:$A$62</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'exp6(II)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'exp6(II)'!$E$2:$E$62</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'exp6(II)'!$F$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'exp6(II)'!$F$2:$F$62</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'exp6(II)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'exp6(II)'!$G$2:$G$62</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'exp8'!$C$2</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'exp8'!$C$3:$C$62</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'exp8'!$D$2</definedName>
@@ -31120,8 +31142,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -31160,7 +31182,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6496050" y="190500"/>
-              <a:ext cx="7753350" cy="3924300"/>
+              <a:ext cx="7753350" cy="5651500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -37578,8 +37600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68141B65-4AC3-184D-B851-FD31148E4E98}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38226,6 +38248,9 @@
       <c r="F27">
         <v>1.5297619047619</v>
       </c>
+      <c r="G27">
+        <v>1.37638888888888</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
@@ -38247,6 +38272,9 @@
       <c r="F28">
         <v>1.57369942196531</v>
       </c>
+      <c r="G28">
+        <v>1.39923469387755</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
@@ -38268,6 +38296,9 @@
       <c r="F29">
         <v>1.5833333333333299</v>
       </c>
+      <c r="G29">
+        <v>1.4736111111111101</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
@@ -38289,6 +38320,9 @@
       <c r="F30">
         <v>1.6286982248520701</v>
       </c>
+      <c r="G30">
+        <v>1.4820359281437101</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
@@ -38310,6 +38344,9 @@
       <c r="F31">
         <v>1.67628205128205</v>
       </c>
+      <c r="G31">
+        <v>1.45757575757575</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
@@ -38331,6 +38368,9 @@
       <c r="F32">
         <v>1.6982142857142799</v>
       </c>
+      <c r="G32">
+        <v>1.51515151515151</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
@@ -38340,6 +38380,21 @@
         <f>A33*10</f>
         <v>10</v>
       </c>
+      <c r="C33">
+        <v>1.5359477124183001</v>
+      </c>
+      <c r="D33">
+        <v>1.10248447204968</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
@@ -38349,6 +38404,21 @@
         <f t="shared" ref="B34:B47" si="2">A34*10</f>
         <v>20</v>
       </c>
+      <c r="C34">
+        <v>1.89619883040935</v>
+      </c>
+      <c r="D34">
+        <v>1.3859375</v>
+      </c>
+      <c r="E34">
+        <v>1.11057692307692</v>
+      </c>
+      <c r="F34">
+        <v>1.01687116564417</v>
+      </c>
+      <c r="G34">
+        <v>1.0014619883040901</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
@@ -38358,6 +38428,21 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="C35">
+        <v>2.27678571428571</v>
+      </c>
+      <c r="D35">
+        <v>1.5177419354838699</v>
+      </c>
+      <c r="E35">
+        <v>1.2439613526569999</v>
+      </c>
+      <c r="F35">
+        <v>1.1048951048950999</v>
+      </c>
+      <c r="G35">
+        <v>1.03266331658291</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
@@ -38367,6 +38452,21 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="C36">
+        <v>2.4455882352941098</v>
+      </c>
+      <c r="D36">
+        <v>1.76479289940828</v>
+      </c>
+      <c r="E36">
+        <v>1.3515625</v>
+      </c>
+      <c r="F36">
+        <v>1.1925465838509299</v>
+      </c>
+      <c r="G36">
+        <v>1.0796089385474801</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
@@ -38376,6 +38476,21 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
+      <c r="C37">
+        <v>2.6651234567901199</v>
+      </c>
+      <c r="D37">
+        <v>1.8068181818181801</v>
+      </c>
+      <c r="E37">
+        <v>1.4644970414201099</v>
+      </c>
+      <c r="F37">
+        <v>1.27139037433155</v>
+      </c>
+      <c r="G37">
+        <v>1.1451612903225801</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
@@ -38385,6 +38500,21 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
+      <c r="C38">
+        <v>2.7362804878048701</v>
+      </c>
+      <c r="D38">
+        <v>1.9660493827160399</v>
+      </c>
+      <c r="E38">
+        <v>1.51344086021505</v>
+      </c>
+      <c r="F38">
+        <v>1.3371710526315701</v>
+      </c>
+      <c r="G38">
+        <v>1.19938650306748</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
@@ -38394,6 +38524,21 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
+      <c r="C39">
+        <v>2.8026315789473601</v>
+      </c>
+      <c r="D39">
+        <v>2.0454545454545401</v>
+      </c>
+      <c r="E39">
+        <v>1.61728395061728</v>
+      </c>
+      <c r="F39">
+        <v>1.3801369863013699</v>
+      </c>
+      <c r="G39">
+        <v>1.20926966292134</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
@@ -38403,7 +38548,21 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="C40">
+        <v>2.8159509202453901</v>
+      </c>
+      <c r="D40">
+        <v>2.14798850574712</v>
+      </c>
+      <c r="E40">
+        <v>1.64786585365853</v>
+      </c>
+      <c r="F40">
+        <v>1.4654696132596601</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1.2671232876712299</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
@@ -38413,6 +38572,21 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
+      <c r="C41">
+        <v>2.9401197604790399</v>
+      </c>
+      <c r="D41">
+        <v>2.2100591715976301</v>
+      </c>
+      <c r="E41">
+        <v>1.75552486187845</v>
+      </c>
+      <c r="F41">
+        <v>1.4787878787878701</v>
+      </c>
+      <c r="G41">
+        <v>1.3139204545454499</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
@@ -38422,6 +38596,21 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
+      <c r="C42">
+        <v>2.69504310344827</v>
+      </c>
+      <c r="D42">
+        <v>2.2361111111111098</v>
+      </c>
+      <c r="E42">
+        <v>1.8070652173913</v>
+      </c>
+      <c r="F42">
+        <v>1.5536723163841799</v>
+      </c>
+      <c r="G42">
+        <v>1.3884180790960401</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
@@ -38431,6 +38620,21 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
+      <c r="C43">
+        <v>3.1722560975609699</v>
+      </c>
+      <c r="D43">
+        <v>2.29458598726114</v>
+      </c>
+      <c r="E43">
+        <v>1.8128140703517499</v>
+      </c>
+      <c r="F43">
+        <v>1.6150568181818099</v>
+      </c>
+      <c r="G43">
+        <v>1.3964497041420101</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
@@ -38440,6 +38644,21 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
+      <c r="C44">
+        <v>3.2390109890109802</v>
+      </c>
+      <c r="D44">
+        <v>2.3294117647058799</v>
+      </c>
+      <c r="E44">
+        <v>1.8128415300546401</v>
+      </c>
+      <c r="F44">
+        <v>1.6298076923076901</v>
+      </c>
+      <c r="G44">
+        <v>1.4388586956521701</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
@@ -38449,6 +38668,21 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
+      <c r="C45">
+        <v>3.24277456647398</v>
+      </c>
+      <c r="D45">
+        <v>2.3818181818181801</v>
+      </c>
+      <c r="E45">
+        <v>1.88636363636363</v>
+      </c>
+      <c r="F45">
+        <v>1.6640127388535</v>
+      </c>
+      <c r="G45">
+        <v>1.4799382716049301</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
@@ -38458,6 +38692,21 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
+      <c r="C46">
+        <v>3.3963815789473601</v>
+      </c>
+      <c r="D46">
+        <v>2.41166666666666</v>
+      </c>
+      <c r="E46">
+        <v>1.9294478527607299</v>
+      </c>
+      <c r="F46">
+        <v>1.63102409638554</v>
+      </c>
+      <c r="G46">
+        <v>1.48479729729729</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
@@ -38467,6 +38716,21 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
+      <c r="C47">
+        <v>3.32407407407407</v>
+      </c>
+      <c r="D47">
+        <v>2.4619205298013198</v>
+      </c>
+      <c r="E47">
+        <v>1.94785276073619</v>
+      </c>
+      <c r="F47">
+        <v>1.6781767955801099</v>
+      </c>
+      <c r="G47">
+        <v>1.51107594936708</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
@@ -38476,8 +38740,11 @@
         <f>A48*10</f>
         <v>10</v>
       </c>
+      <c r="C48">
+        <v>1.54905063291139</v>
+      </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -38485,8 +38752,11 @@
         <f t="shared" ref="B49:B62" si="3">A49*10</f>
         <v>20</v>
       </c>
+      <c r="C49">
+        <v>1.92901234567901</v>
+      </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -38494,8 +38764,11 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
+      <c r="C50">
+        <v>2.2105263157894699</v>
+      </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -38503,8 +38776,11 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
+      <c r="C51">
+        <v>2.3734375000000001</v>
+      </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -38512,8 +38788,11 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
+      <c r="C52">
+        <v>2.5968208092485501</v>
+      </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -38521,8 +38800,11 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
+      <c r="C53">
+        <v>2.6694915254237199</v>
+      </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>7</v>
       </c>
@@ -38530,8 +38812,11 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
+      <c r="C54">
+        <v>2.7704678362573101</v>
+      </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>8</v>
       </c>
@@ -38539,8 +38824,11 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
+      <c r="C55">
+        <v>2.87053571428571</v>
+      </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>9</v>
       </c>
@@ -38548,8 +38836,11 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
+      <c r="C56">
+        <v>2.92837078651685</v>
+      </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>10</v>
       </c>
@@ -38557,8 +38848,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
+      <c r="C57">
+        <v>3.0464480874316902</v>
+      </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>11</v>
       </c>
@@ -38566,8 +38860,11 @@
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
+      <c r="C58">
+        <v>3.1967455621301699</v>
+      </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -38575,8 +38872,11 @@
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
+      <c r="C59">
+        <v>3.2397959183673399</v>
+      </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>13</v>
       </c>
@@ -38584,8 +38884,11 @@
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
+      <c r="C60">
+        <v>3.2383040935672498</v>
+      </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>14</v>
       </c>
@@ -38593,14 +38896,20 @@
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
+      <c r="C61">
+        <v>3.2515151515151501</v>
+      </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>15</v>
       </c>
       <c r="B62">
         <f t="shared" si="3"/>
         <v>150</v>
+      </c>
+      <c r="C62">
+        <v>3.36486486486486</v>
       </c>
     </row>
   </sheetData>
